--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeng\Documents\GitHub\documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDENG\Documents\github\documents\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId2"/>
+    <sheet name="tech" sheetId="4" r:id="rId3"/>
+    <sheet name="output" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="159">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -306,18 +309,446 @@
   </si>
   <si>
     <t>规划人力资源管理</t>
+  </si>
+  <si>
+    <t>项目工作说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制定项目章程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业论证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议（合同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织工程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理子计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制定项目管理计划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准的变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指导与管理项目工作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认的变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 监控项目工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实施整体变更控制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结束项目或阶段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理信息系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更控制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准的变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终产品、服务或成果移交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规划范围管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人登记册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收集需求</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目范围说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求跟踪矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核实的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确认范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控制范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导式研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体创新技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体决策技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -365,6 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,22 +1113,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="97.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="97.5" customWidth="1"/>
+    <col min="3" max="3" width="8.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="28.5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -736,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,11 +1176,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -756,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -780,7 +1212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -788,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -796,11 +1228,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -808,7 +1240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -816,7 +1248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,7 +1256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -832,7 +1264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -840,7 +1272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -848,7 +1280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -856,11 +1288,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -868,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -876,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -884,7 +1316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -892,11 +1324,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -904,7 +1336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -912,7 +1344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -920,11 +1352,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -932,7 +1364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -940,7 +1372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -948,7 +1380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -956,11 +1388,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -968,7 +1400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -976,7 +1408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
@@ -984,11 +1416,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -996,7 +1428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1004,7 +1436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -1012,7 +1444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -1020,7 +1452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -1028,7 +1460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -1036,11 +1468,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -1048,7 +1480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1056,7 +1488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -1064,7 +1496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -1072,11 +1504,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="28.5">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1084,7 +1516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="28.5">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1092,7 +1524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="28.5">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -1100,7 +1532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1109,7 +1541,805 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDENG\Documents\github\documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeng\Documents\GitHub\documents\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -362,7 +362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -387,7 +387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -428,7 +428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -457,7 +457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -558,7 +558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -591,7 +591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -608,7 +608,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -629,7 +629,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -640,7 +640,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,7 +668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -685,7 +685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -782,7 +782,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -799,7 +799,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -816,7 +816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -833,7 +833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -850,7 +850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -867,7 +867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -884,7 +884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1171,7 +1171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1192,7 +1192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1265,7 +1265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1282,7 +1282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1299,7 +1299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1388,7 +1388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1405,7 +1405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1518,7 +1518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1552,7 +1552,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1642,7 +1642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1659,7 +1659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1676,7 +1676,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1693,7 +1693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1710,7 +1710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1835,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1856,7 +1856,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1873,7 +1873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2007,7 +2007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2028,7 +2028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2061,7 +2061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2077,7 +2077,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2204,7 +2204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2396,7 +2396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2407,7 +2407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2418,7 +2418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2467,7 +2467,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2484,7 +2484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2509,7 +2509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2527,13 +2527,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2541,7 +2541,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2593,13 +2593,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2920,11 +2920,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="97.5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="97.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5">
+    <row r="6" spans="1:2" ht="29">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>478</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="28.5">
+    <row r="54" spans="1:2" ht="29">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5">
+    <row r="55" spans="1:2" ht="29">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5">
+    <row r="56" spans="1:2" ht="29">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>473</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3358,12 +3358,12 @@
       <selection activeCell="C187" sqref="A2:D190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -3383,7 +3383,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3437,13 +3437,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
@@ -3451,7 +3451,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="s">
@@ -3489,25 +3489,25 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>323</v>
       </c>
@@ -3545,7 +3545,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B26" t="s">
@@ -3553,13 +3553,13 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3567,37 +3567,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>309</v>
       </c>
       <c r="B43" t="s">
@@ -3675,19 +3675,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B46" t="s">
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
         <v>302</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B60" t="s">
@@ -3803,91 +3803,91 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
       <c r="B68" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
       <c r="B69" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
       <c r="B70" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8"/>
       <c r="B71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8"/>
       <c r="B72" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="8"/>
       <c r="B73" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
         <v>383</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B79" t="s">
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="8"/>
       <c r="B80" t="s">
         <v>354</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B82" t="s">
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
         <v>239</v>
       </c>
@@ -3977,7 +3977,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B87" t="s">
@@ -3985,7 +3985,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
         <v>174</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B92" t="s">
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6"/>
+      <c r="A93" s="8"/>
       <c r="B93" t="s">
         <v>174</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B95" t="s">
@@ -4045,7 +4045,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6"/>
+      <c r="A96" s="8"/>
       <c r="B96" t="s">
         <v>174</v>
       </c>
@@ -4107,7 +4107,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
@@ -4115,25 +4115,25 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6"/>
+      <c r="A105" s="8"/>
       <c r="B105" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="6"/>
+      <c r="A106" s="8"/>
       <c r="B106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6"/>
+      <c r="A107" s="8"/>
       <c r="B107" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -4141,13 +4141,13 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="6"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="4" t="s">
         <v>382</v>
       </c>
@@ -4177,7 +4177,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B114" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6"/>
+      <c r="A115" s="8"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B117" t="s">
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="6"/>
+      <c r="A118" s="8"/>
       <c r="B118" t="s">
         <v>232</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B123" t="s">
@@ -4253,13 +4253,13 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="6"/>
+      <c r="A124" s="8"/>
       <c r="B124" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="6"/>
+      <c r="A125" s="8"/>
       <c r="B125" t="s">
         <v>174</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="8" t="s">
         <v>402</v>
       </c>
       <c r="B134" t="s">
@@ -4337,19 +4337,19 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="6"/>
+      <c r="A135" s="8"/>
       <c r="B135" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="6"/>
+      <c r="A136" s="8"/>
       <c r="B136" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="8" t="s">
         <v>403</v>
       </c>
       <c r="B137" t="s">
@@ -4357,7 +4357,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="6"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
         <v>108</v>
       </c>
@@ -4379,7 +4379,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B141" t="s">
@@ -4387,13 +4387,13 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="6"/>
+      <c r="A142" s="8"/>
       <c r="B142" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="6"/>
+      <c r="A143" s="8"/>
       <c r="B143" t="s">
         <v>383</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B146" t="s">
@@ -4423,13 +4423,13 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="6"/>
+      <c r="A147" s="8"/>
       <c r="B147" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B148" t="s">
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="6"/>
+      <c r="A149" s="8"/>
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B158" t="s">
@@ -4515,157 +4515,157 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="6"/>
+      <c r="A159" s="8"/>
       <c r="B159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="6"/>
+      <c r="A160" s="8"/>
       <c r="B160" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="6"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="6"/>
+      <c r="A162" s="8"/>
       <c r="B162" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="6"/>
+      <c r="A163" s="8"/>
       <c r="B163" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="6"/>
+      <c r="A164" s="8"/>
       <c r="B164" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="6"/>
+      <c r="A165" s="8"/>
       <c r="B165" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="6"/>
+      <c r="A166" s="8"/>
       <c r="B166" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="6"/>
+      <c r="A167" s="8"/>
       <c r="B167" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="6"/>
+      <c r="A168" s="8"/>
       <c r="B168" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="6"/>
+      <c r="A169" s="8"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="6"/>
+      <c r="A170" s="8"/>
       <c r="B170" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="6"/>
+      <c r="A171" s="8"/>
       <c r="B171" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="6"/>
+      <c r="A172" s="8"/>
       <c r="B172" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="6"/>
+      <c r="A173" s="8"/>
       <c r="B173" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="6"/>
+      <c r="A174" s="8"/>
       <c r="B174" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="6"/>
+      <c r="A175" s="8"/>
       <c r="B175" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="6"/>
+      <c r="A176" s="8"/>
       <c r="B176" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="6"/>
+      <c r="A177" s="8"/>
       <c r="B177" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="6"/>
+      <c r="A178" s="8"/>
       <c r="B178" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="6"/>
+      <c r="A179" s="8"/>
       <c r="B179" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="6"/>
+      <c r="A180" s="8"/>
       <c r="B180" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="6"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="6"/>
+      <c r="A182" s="8"/>
       <c r="B182" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="6"/>
+      <c r="A183" s="8"/>
       <c r="B183" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="6"/>
+      <c r="A184" s="8"/>
       <c r="B184" t="s">
         <v>383</v>
       </c>
@@ -4750,18 +4750,6 @@
     <sortCondition ref="A75"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A158:A184"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A87:A88"/>
@@ -4776,6 +4764,18 @@
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4790,10 +4790,10 @@
       <selection activeCell="A196" sqref="A196:A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -6096,14 +6096,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -7203,16 +7203,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B303"/>
+  <dimension ref="A2:B304"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:A195"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -8939,17 +8939,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B255" t="s">
-        <v>351</v>
-      </c>
+    <row r="254" spans="1:2">
+      <c r="A254" s="4"/>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>351</v>
@@ -8957,7 +8952,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="4" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="B257" t="s">
         <v>351</v>
@@ -8965,7 +8960,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B258" t="s">
         <v>351</v>
@@ -8973,7 +8968,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="4" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="B259" t="s">
         <v>351</v>
@@ -8981,7 +8976,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="4" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="B260" t="s">
         <v>351</v>
@@ -8989,7 +8984,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="4" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="B261" t="s">
         <v>351</v>
@@ -8997,7 +8992,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="4" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="B262" t="s">
         <v>351</v>
@@ -9005,23 +9000,23 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B263" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>352</v>
+    <row r="264" spans="1:2">
+      <c r="A264" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="4" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>352</v>
@@ -9029,7 +9024,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="4" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>352</v>
@@ -9037,7 +9032,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>352</v>
@@ -9045,7 +9040,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="4" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>352</v>
@@ -9053,7 +9048,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="4" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>352</v>
@@ -9061,7 +9056,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>352</v>
@@ -9069,23 +9064,23 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="4" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B274" t="s">
-        <v>353</v>
+    <row r="273" spans="1:2">
+      <c r="A273" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="4" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="B275" t="s">
         <v>353</v>
@@ -9093,7 +9088,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="4" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="B276" t="s">
         <v>353</v>
@@ -9101,7 +9096,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="4" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B277" t="s">
         <v>353</v>
@@ -9109,7 +9104,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
         <v>353</v>
@@ -9117,42 +9112,42 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="4" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="B279" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B281" t="s">
-        <v>354</v>
+    <row r="280" spans="1:2">
+      <c r="A280" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B280" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="4" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="B282" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="4"/>
+    <row r="283" spans="1:2">
+      <c r="A283" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B283" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B285" t="s">
-        <v>380</v>
-      </c>
+      <c r="A285" s="4"/>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="4" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="B286" t="s">
         <v>380</v>
@@ -9160,7 +9155,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="4" t="s">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="B287" t="s">
         <v>380</v>
@@ -9168,23 +9163,23 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B288" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B290" t="s">
-        <v>381</v>
+    <row r="289" spans="1:2">
+      <c r="A289" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B289" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B291" t="s">
         <v>381</v>
@@ -9192,7 +9187,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="4" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="B292" t="s">
         <v>381</v>
@@ -9200,23 +9195,23 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B293" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>382</v>
+    <row r="294" spans="1:2">
+      <c r="A294" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B294" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="4" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>382</v>
@@ -9224,7 +9219,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="4" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>382</v>
@@ -9232,23 +9227,23 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="4" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B300" t="s">
-        <v>383</v>
+    <row r="299" spans="1:2">
+      <c r="A299" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B301" t="s">
         <v>383</v>
@@ -9256,7 +9251,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="4" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="B302" t="s">
         <v>383</v>
@@ -9264,9 +9259,17 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B303" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9284,15 +9287,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -10835,21 +10838,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -11033,7 +11036,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -11044,7 +11047,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -11053,7 +11056,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -11064,7 +11067,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -11073,7 +11076,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -11084,8 +11087,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -11093,15 +11096,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -11129,7 +11132,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -11140,7 +11143,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -11149,7 +11152,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -11160,8 +11163,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -11172,59 +11175,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -11235,56 +11238,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -11293,7 +11296,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -11304,8 +11307,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -11313,35 +11316,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="4" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -11352,8 +11355,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -11361,22 +11364,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -11385,21 +11388,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -11410,8 +11413,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -11419,8 +11422,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -11437,7 +11440,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -11448,8 +11451,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -11460,8 +11463,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -11470,7 +11473,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -11481,7 +11484,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -11490,7 +11493,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -11501,8 +11504,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -11510,8 +11513,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -11528,7 +11531,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -11539,7 +11542,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="6"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -11557,7 +11560,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -11568,8 +11571,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -11577,28 +11580,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -11609,8 +11612,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -11618,14 +11621,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -11636,7 +11639,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="6"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -11654,7 +11657,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -11665,8 +11668,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -11677,24 +11680,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -11705,8 +11708,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -11715,22 +11718,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -11739,29 +11742,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -11773,8 +11776,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -11783,7 +11786,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="6"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -11792,7 +11795,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -11803,7 +11806,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="6"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -11812,7 +11815,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -11823,8 +11826,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -11832,21 +11835,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="8" t="s">
         <v>488</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -11857,7 +11860,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="6"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -11877,10 +11880,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -11903,8 +11906,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -11919,8 +11922,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -11944,8 +11947,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -11960,8 +11963,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -11970,8 +11973,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -11983,8 +11986,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -11996,8 +11999,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -12006,8 +12009,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -12016,8 +12019,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -12029,8 +12032,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -12038,29 +12041,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -12069,15 +12072,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -12086,15 +12089,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -12103,8 +12106,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -12124,7 +12127,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="8" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -12135,7 +12138,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="6"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -12144,7 +12147,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -12155,8 +12158,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6" t="s">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -12164,8 +12167,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -12174,8 +12177,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -12184,7 +12187,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -12195,7 +12198,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="6"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -12216,7 +12219,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -12227,7 +12230,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="6"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -12236,7 +12239,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -12247,7 +12250,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="6"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -12256,7 +12259,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -12267,7 +12270,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="6"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -12276,7 +12279,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -12287,8 +12290,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -12299,14 +12302,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -12317,7 +12320,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="6"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -12329,10 +12332,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -12340,22 +12343,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6" t="s">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -12369,21 +12372,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -12394,7 +12397,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="6"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -12414,7 +12417,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -12425,7 +12428,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="6"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -12434,7 +12437,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -12445,8 +12448,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6" t="s">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -12469,8 +12472,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -12479,7 +12482,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -12490,7 +12493,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="6"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -12499,7 +12502,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -12510,8 +12513,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6" t="s">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -12519,8 +12522,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -12529,8 +12532,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -12547,7 +12550,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -12558,7 +12561,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="6"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -12567,7 +12570,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="8" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -12578,8 +12581,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6" t="s">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -12587,8 +12590,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -12600,8 +12603,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -12618,7 +12621,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -12629,7 +12632,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="6"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -12638,7 +12641,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -12649,8 +12652,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6" t="s">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -12658,21 +12661,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -12683,8 +12686,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6" t="s">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -12701,21 +12704,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -12726,7 +12729,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="6"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -12735,7 +12738,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -12746,7 +12749,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="6"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -12758,7 +12761,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -12769,8 +12772,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6" t="s">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -12778,8 +12781,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -12799,10 +12802,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -12813,31 +12816,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -12851,8 +12854,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -12867,8 +12870,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -12886,8 +12889,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -12899,8 +12902,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -12912,15 +12915,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -12932,8 +12935,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -12948,8 +12951,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -12958,8 +12961,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -12971,7 +12974,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -12982,7 +12985,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="6"/>
+      <c r="A210" s="8"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -12991,7 +12994,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -13002,7 +13005,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="6"/>
+      <c r="A212" s="8"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -13011,7 +13014,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -13022,8 +13025,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6" t="s">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -13031,8 +13034,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -13044,29 +13047,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -13083,10 +13086,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -13094,15 +13097,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6" t="s">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -13119,22 +13122,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -13143,8 +13146,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -13153,15 +13156,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -13170,15 +13173,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -13193,8 +13196,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -13203,10 +13206,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -13220,15 +13223,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -13237,29 +13240,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -13268,15 +13271,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -13285,8 +13288,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -13295,8 +13298,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -13305,7 +13308,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -13316,8 +13319,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6" t="s">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -13325,8 +13328,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -13335,7 +13338,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -13346,7 +13349,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="6"/>
+      <c r="A248" s="8"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -13355,7 +13358,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -13366,7 +13369,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="6"/>
+      <c r="A250" s="8"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -13375,7 +13378,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -13386,8 +13389,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6" t="s">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -13401,8 +13404,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -13411,15 +13414,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -13434,14 +13437,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -13452,7 +13455,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="6"/>
+      <c r="A258" s="8"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -13473,7 +13476,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -13484,7 +13487,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="6"/>
+      <c r="A260" s="8"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -13493,7 +13496,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="8" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -13504,7 +13507,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="6"/>
+      <c r="A262" s="8"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -13513,7 +13516,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -13524,7 +13527,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="6"/>
+      <c r="A264" s="8"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -13549,11 +13552,81 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -13570,81 +13643,11 @@
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A208"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B214:B219"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13659,10 +13662,10 @@
       <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="65.125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:3">
@@ -13814,14 +13817,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="61.75" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -13940,10 +13943,10 @@
       <selection activeCell="B7" sqref="B7:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="65.125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -14028,15 +14031,15 @@
       <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -15752,12 +15755,12 @@
       <selection activeCell="C91" sqref="C91:D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">

--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
     <sheet name="input" sheetId="2" r:id="rId2"/>
-    <sheet name="sorted_input" sheetId="8" r:id="rId3"/>
-    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId4"/>
-    <sheet name="Confused_tech" sheetId="12" r:id="rId5"/>
-    <sheet name="Confused_Process" sheetId="15" r:id="rId6"/>
-    <sheet name="Confused_doc" sheetId="14" r:id="rId7"/>
-    <sheet name="tech" sheetId="4" r:id="rId8"/>
-    <sheet name="tech (2)" sheetId="13" r:id="rId9"/>
-    <sheet name="sorted_tech" sheetId="10" r:id="rId10"/>
-    <sheet name="output" sheetId="5" r:id="rId11"/>
-    <sheet name="sorted_output" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="sorted_input" sheetId="8" r:id="rId4"/>
+    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId5"/>
+    <sheet name="Confused_tech" sheetId="12" r:id="rId6"/>
+    <sheet name="Confused_Process" sheetId="15" r:id="rId7"/>
+    <sheet name="Confused_doc" sheetId="14" r:id="rId8"/>
+    <sheet name="tech" sheetId="4" r:id="rId9"/>
+    <sheet name="tech (2)" sheetId="13" r:id="rId10"/>
+    <sheet name="sorted_tech" sheetId="10" r:id="rId11"/>
+    <sheet name="output" sheetId="5" r:id="rId12"/>
+    <sheet name="sorted_output" sheetId="9" r:id="rId13"/>
+    <sheet name="docs" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="496">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -2518,12 +2520,30 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>配置管理计划</t>
+  </si>
+  <si>
+    <t>变更管理计划</t>
+  </si>
+  <si>
+    <t>工作绩效数据</t>
+  </si>
+  <si>
+    <t>项目工作说明书（输入）</t>
+  </si>
+  <si>
+    <t>质量核对单（表）</t>
+  </si>
+  <si>
+    <t>卖方建议书（输入）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2544,6 +2564,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2582,7 +2610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2595,11 +2623,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3352,6 +3381,1624 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:D93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>427</v>
+      </c>
+      <c r="C91" t="s">
+        <v>419</v>
+      </c>
+      <c r="D91" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D93" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B174" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B201" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B218" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B221" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B222" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B223" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B225" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B230" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B238" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B239" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D214"/>
   <sheetViews>
     <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3375,7 +5022,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -3383,7 +5030,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -3429,7 +5076,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3437,13 +5084,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
@@ -3451,7 +5098,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
@@ -3481,7 +5128,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="s">
@@ -3489,25 +5136,25 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>323</v>
       </c>
@@ -3545,7 +5192,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B26" t="s">
@@ -3553,13 +5200,13 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3567,37 +5214,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -3667,7 +5314,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>309</v>
       </c>
       <c r="B43" t="s">
@@ -3675,19 +5322,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B46" t="s">
@@ -3695,13 +5342,13 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="8"/>
+      <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B48" t="s">
@@ -3709,7 +5356,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>302</v>
       </c>
@@ -3795,7 +5442,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B60" t="s">
@@ -3803,91 +5450,91 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
       <c r="B67" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
       <c r="B68" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
       <c r="B69" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
       <c r="B70" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>383</v>
       </c>
@@ -3917,7 +5564,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>408</v>
       </c>
       <c r="B79" t="s">
@@ -3925,7 +5572,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="8"/>
+      <c r="A80" s="7"/>
       <c r="B80" t="s">
         <v>354</v>
       </c>
@@ -3939,7 +5586,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>406</v>
       </c>
       <c r="B82" t="s">
@@ -3947,7 +5594,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
         <v>239</v>
       </c>
@@ -3977,7 +5624,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B87" t="s">
@@ -3985,7 +5632,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
         <v>174</v>
       </c>
@@ -4015,7 +5662,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B92" t="s">
@@ -4023,7 +5670,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="7"/>
       <c r="B93" t="s">
         <v>174</v>
       </c>
@@ -4037,7 +5684,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B95" t="s">
@@ -4045,7 +5692,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="8"/>
+      <c r="A96" s="7"/>
       <c r="B96" t="s">
         <v>174</v>
       </c>
@@ -4107,7 +5754,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
@@ -4115,25 +5762,25 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="8"/>
+      <c r="A105" s="7"/>
       <c r="B105" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="8"/>
+      <c r="A106" s="7"/>
       <c r="B106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
       <c r="B107" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>288</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -4141,13 +5788,13 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="8"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="4" t="s">
         <v>382</v>
       </c>
@@ -4177,7 +5824,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B114" t="s">
@@ -4185,7 +5832,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="8"/>
+      <c r="A115" s="7"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -4199,7 +5846,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B117" t="s">
@@ -4207,7 +5854,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="8"/>
+      <c r="A118" s="7"/>
       <c r="B118" t="s">
         <v>232</v>
       </c>
@@ -4245,7 +5892,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B123" t="s">
@@ -4253,13 +5900,13 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
       <c r="B124" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="8"/>
+      <c r="A125" s="7"/>
       <c r="B125" t="s">
         <v>174</v>
       </c>
@@ -4329,7 +5976,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>402</v>
       </c>
       <c r="B134" t="s">
@@ -4337,19 +5984,19 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="8"/>
+      <c r="A135" s="7"/>
       <c r="B135" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="8"/>
+      <c r="A136" s="7"/>
       <c r="B136" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>403</v>
       </c>
       <c r="B137" t="s">
@@ -4357,7 +6004,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="8"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="4" t="s">
         <v>108</v>
       </c>
@@ -4379,7 +6026,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>404</v>
       </c>
       <c r="B141" t="s">
@@ -4387,13 +6034,13 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
       <c r="B142" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
       <c r="B143" t="s">
         <v>383</v>
       </c>
@@ -4415,7 +6062,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>405</v>
       </c>
       <c r="B146" t="s">
@@ -4423,13 +6070,13 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="8"/>
+      <c r="A147" s="7"/>
       <c r="B147" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B148" t="s">
@@ -4437,7 +6084,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="8"/>
+      <c r="A149" s="7"/>
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -4507,7 +6154,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B158" t="s">
@@ -4515,157 +6162,157 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="8"/>
+      <c r="A159" s="7"/>
       <c r="B159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="8"/>
+      <c r="A160" s="7"/>
       <c r="B160" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="8"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="8"/>
+      <c r="A162" s="7"/>
       <c r="B162" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="8"/>
+      <c r="A163" s="7"/>
       <c r="B163" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
       <c r="B164" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="8"/>
+      <c r="A165" s="7"/>
       <c r="B165" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="8"/>
+      <c r="A166" s="7"/>
       <c r="B166" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="8"/>
+      <c r="A167" s="7"/>
       <c r="B167" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="8"/>
+      <c r="A168" s="7"/>
       <c r="B168" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="8"/>
+      <c r="A169" s="7"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="8"/>
+      <c r="A170" s="7"/>
       <c r="B170" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="8"/>
+      <c r="A171" s="7"/>
       <c r="B171" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="8"/>
+      <c r="A172" s="7"/>
       <c r="B172" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="8"/>
+      <c r="A173" s="7"/>
       <c r="B173" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="8"/>
+      <c r="A174" s="7"/>
       <c r="B174" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="8"/>
+      <c r="A175" s="7"/>
       <c r="B175" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="8"/>
+      <c r="A176" s="7"/>
       <c r="B176" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="8"/>
+      <c r="A177" s="7"/>
       <c r="B177" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="8"/>
+      <c r="A178" s="7"/>
       <c r="B178" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="8"/>
+      <c r="A179" s="7"/>
       <c r="B179" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="8"/>
+      <c r="A180" s="7"/>
       <c r="B180" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="8"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="8"/>
+      <c r="A182" s="7"/>
       <c r="B182" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="8"/>
+      <c r="A183" s="7"/>
       <c r="B183" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="8"/>
+      <c r="A184" s="7"/>
       <c r="B184" t="s">
         <v>383</v>
       </c>
@@ -4750,6 +6397,18 @@
     <sortCondition ref="A75"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A158:A184"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A87:A88"/>
@@ -4764,30 +6423,18 @@
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B209"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:A197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6088,12 +7735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7201,12 +8848,345 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="C23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9280,6 +11260,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G195"/>
   <sheetViews>
@@ -10834,7 +12826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I265"/>
   <sheetViews>
@@ -10856,10 +12848,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C2" t="s">
@@ -10879,8 +12871,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>135</v>
       </c>
@@ -10889,8 +12881,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>169</v>
       </c>
@@ -10911,8 +12903,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>231</v>
       </c>
@@ -10921,15 +12913,15 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>275</v>
       </c>
@@ -10938,8 +12930,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>301</v>
       </c>
@@ -10948,8 +12940,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>313</v>
       </c>
@@ -10964,15 +12956,15 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>380</v>
       </c>
@@ -10995,7 +12987,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -11007,8 +12999,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C14" t="s">
@@ -11016,8 +13008,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>276</v>
       </c>
@@ -11029,14 +13021,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -11047,7 +13039,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -11056,7 +13048,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -11067,7 +13059,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -11076,7 +13068,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -11087,8 +13079,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -11096,15 +13088,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -11132,7 +13124,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -11143,7 +13135,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -11152,7 +13144,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -11163,8 +13155,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -11175,59 +13167,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -11238,56 +13230,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -11296,7 +13288,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -11307,8 +13299,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -11316,35 +13308,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="4" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -11355,8 +13347,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -11364,22 +13356,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -11388,21 +13380,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -11413,8 +13405,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -11422,8 +13414,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -11440,7 +13432,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -11451,8 +13443,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -11463,8 +13455,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -11473,7 +13465,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -11484,7 +13476,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -11493,7 +13485,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -11504,8 +13496,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -11513,8 +13505,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -11531,7 +13523,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -11542,7 +13534,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -11560,7 +13552,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -11571,8 +13563,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -11580,28 +13572,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -11612,8 +13604,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -11621,14 +13613,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -11639,7 +13631,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -11657,7 +13649,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -11668,8 +13660,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -11680,24 +13672,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -11708,8 +13700,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -11718,22 +13710,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -11742,29 +13734,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -11776,8 +13768,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -11786,7 +13778,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="8"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -11795,7 +13787,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -11806,7 +13798,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="8"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -11815,7 +13807,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -11826,8 +13818,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -11835,21 +13827,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>488</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -11860,7 +13852,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -11880,10 +13872,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -11906,8 +13898,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -11922,8 +13914,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -11947,8 +13939,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -11963,8 +13955,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -11973,8 +13965,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -11986,8 +13978,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -11999,8 +13991,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -12009,8 +14001,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -12019,8 +14011,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -12032,8 +14024,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -12041,29 +14033,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -12072,15 +14064,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -12089,15 +14081,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -12106,8 +14098,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -12127,7 +14119,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -12138,7 +14130,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="8"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -12147,7 +14139,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -12158,8 +14150,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -12167,8 +14159,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -12177,8 +14169,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -12187,7 +14179,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -12198,7 +14190,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="8"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -12219,7 +14211,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -12230,7 +14222,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="8"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -12239,7 +14231,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -12250,7 +14242,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -12259,7 +14251,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -12270,7 +14262,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -12279,7 +14271,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -12290,8 +14282,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8" t="s">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -12302,14 +14294,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -12320,7 +14312,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="8"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -12332,10 +14324,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -12343,22 +14335,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -12372,21 +14364,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -12397,7 +14389,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="8"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -12417,7 +14409,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -12428,7 +14420,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="8"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -12437,7 +14429,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -12448,8 +14440,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -12472,8 +14464,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -12482,7 +14474,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -12493,7 +14485,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -12502,7 +14494,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -12513,8 +14505,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8" t="s">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -12522,8 +14514,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -12532,8 +14524,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -12550,7 +14542,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -12561,7 +14553,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="8"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -12570,7 +14562,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -12581,8 +14573,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8" t="s">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -12590,8 +14582,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -12603,8 +14595,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -12621,7 +14613,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -12632,7 +14624,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="8"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -12641,7 +14633,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -12652,8 +14644,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8" t="s">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -12661,21 +14653,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -12686,8 +14678,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8" t="s">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -12704,21 +14696,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -12729,7 +14721,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="8"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -12738,7 +14730,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -12749,7 +14741,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="8"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -12761,7 +14753,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -12772,8 +14764,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8" t="s">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -12781,8 +14773,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -12802,10 +14794,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -12816,31 +14808,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -12854,8 +14846,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -12870,8 +14862,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -12889,8 +14881,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -12902,8 +14894,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -12915,15 +14907,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -12935,8 +14927,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -12951,8 +14943,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -12961,8 +14953,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -12974,7 +14966,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -12985,7 +14977,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="8"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -12994,7 +14986,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -13005,7 +14997,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="8"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -13014,7 +15006,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -13025,8 +15017,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8" t="s">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -13034,8 +15026,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -13047,29 +15039,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -13086,10 +15078,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -13097,15 +15089,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8" t="s">
+      <c r="A223" s="7"/>
+      <c r="B223" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -13122,22 +15114,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -13146,8 +15138,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -13156,15 +15148,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -13173,15 +15165,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
+      <c r="A230" s="7"/>
+      <c r="B230" s="7"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -13196,8 +15188,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="7"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -13206,10 +15198,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -13223,15 +15215,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="7"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="7"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -13240,29 +15232,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="7"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="7"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -13271,15 +15263,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -13288,8 +15280,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -13298,8 +15290,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
+      <c r="A243" s="7"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -13308,7 +15300,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -13319,8 +15311,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8" t="s">
+      <c r="A245" s="7"/>
+      <c r="B245" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -13328,8 +15320,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -13338,7 +15330,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -13349,7 +15341,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="8"/>
+      <c r="A248" s="7"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -13358,7 +15350,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -13369,7 +15361,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="8"/>
+      <c r="A250" s="7"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -13378,7 +15370,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -13389,8 +15381,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8" t="s">
+      <c r="A252" s="7"/>
+      <c r="B252" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -13404,8 +15396,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -13414,15 +15406,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -13437,14 +15429,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -13455,7 +15447,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="8"/>
+      <c r="A258" s="7"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -13476,7 +15468,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -13487,7 +15479,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="8"/>
+      <c r="A260" s="7"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -13496,7 +15488,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="7" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -13507,7 +15499,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="8"/>
+      <c r="A262" s="7"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -13516,7 +15508,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -13527,7 +15519,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="8"/>
+      <c r="A264" s="7"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -13552,24 +15544,56 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B252:B256"/>
     <mergeCell ref="A251:A256"/>
     <mergeCell ref="A257:A258"/>
@@ -13586,6 +15610,11 @@
     <mergeCell ref="A209:A210"/>
     <mergeCell ref="A211:A212"/>
     <mergeCell ref="B214:B219"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
     <mergeCell ref="B192:B193"/>
     <mergeCell ref="A191:A193"/>
     <mergeCell ref="B195:B198"/>
@@ -13597,64 +15626,27 @@
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
     <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:C34"/>
   <sheetViews>
@@ -13809,7 +15801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
@@ -13935,7 +15927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C34"/>
   <sheetViews>
@@ -14023,7 +16015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G238"/>
   <sheetViews>
@@ -15745,1622 +17737,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D239"/>
-  <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:D93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B81" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B90" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" t="s">
-        <v>427</v>
-      </c>
-      <c r="C91" t="s">
-        <v>419</v>
-      </c>
-      <c r="D91" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" t="s">
-        <v>427</v>
-      </c>
-      <c r="C93" t="s">
-        <v>415</v>
-      </c>
-      <c r="D93" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B115" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B126" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B130" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B132" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B134" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B163" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B166" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B167" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B170" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B171" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B172" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B173" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B175" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B177" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B178" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B179" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B181" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B184" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B185" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B190" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B196" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B197" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B198" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B201" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B202" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B203" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B213" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B214" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B216" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B217" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B218" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B219" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B221" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B222" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B223" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B225" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B226" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B227" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B230" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B231" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B237" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B238" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B239" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeng\Documents\GitHub\documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDENG\Documents\github\documents\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="506">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -323,7 +323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -364,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -389,7 +389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -430,7 +430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -459,7 +459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -560,7 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -610,7 +610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -631,7 +631,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -642,7 +642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -687,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -784,7 +784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -801,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -818,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -835,7 +835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -852,7 +852,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -869,7 +869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1140,7 +1140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1173,7 +1173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1267,7 +1267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1284,7 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1301,7 +1301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1390,7 +1390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1407,7 +1407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1520,7 +1520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1537,7 +1537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1554,7 +1554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1607,7 +1607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1644,7 +1644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1661,7 +1661,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1678,7 +1678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1695,7 +1695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1712,7 +1712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1837,7 +1837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1858,7 +1858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1992,7 +1992,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2009,7 +2009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2030,7 +2030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2063,7 +2063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2206,7 +2206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2398,7 +2398,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2409,7 +2409,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2420,7 +2420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2431,7 +2431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2452,7 +2452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2469,7 +2469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2486,7 +2486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2511,7 +2511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,6 +2537,236 @@
   </si>
   <si>
     <t>卖方建议书（输入）</t>
+  </si>
+  <si>
+    <t>表明每种具体资源的可用工作日或工作班次的日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定可以开展进度活动的工作日和工作班次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>估算活动资源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组建项目团队，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实施采购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制定进度计划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制定进度计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控制质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规划质量管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效信息（输入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作绩效信息</t>
+  </si>
+  <si>
+    <t>资源日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2547,13 +2777,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2561,7 +2791,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2570,7 +2800,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2622,13 +2852,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2949,11 +3179,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="97.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="97.5" customWidth="1"/>
+    <col min="3" max="3" width="8.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2992,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29">
+    <row r="6" spans="1:2" ht="28.5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3340,7 +3570,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="29">
+    <row r="54" spans="1:2" ht="28.5">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3348,7 +3578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29">
+    <row r="55" spans="1:2" ht="28.5">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -3356,7 +3586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29">
+    <row r="56" spans="1:2" ht="28.5">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -3387,12 +3617,12 @@
       <selection activeCell="C91" sqref="C91:D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -5005,12 +5235,12 @@
       <selection activeCell="C187" sqref="A2:D190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -5022,7 +5252,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -5030,7 +5260,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -5076,7 +5306,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5084,13 +5314,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
@@ -5098,7 +5328,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
@@ -5128,7 +5358,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="s">
@@ -5136,25 +5366,25 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>323</v>
       </c>
@@ -5192,7 +5422,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B26" t="s">
@@ -5200,13 +5430,13 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -5214,37 +5444,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -5314,7 +5544,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B43" t="s">
@@ -5322,19 +5552,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>307</v>
       </c>
       <c r="B46" t="s">
@@ -5342,7 +5572,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="9"/>
       <c r="B47" t="s">
         <v>302</v>
       </c>
@@ -5442,7 +5672,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B60" t="s">
@@ -5450,91 +5680,91 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="9"/>
       <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="9"/>
       <c r="B63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="9"/>
       <c r="B64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="9"/>
       <c r="B65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="9"/>
       <c r="B66" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="9"/>
       <c r="B67" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="9"/>
       <c r="B68" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="9"/>
       <c r="B69" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="9"/>
       <c r="B70" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="9"/>
       <c r="B72" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="9"/>
       <c r="B73" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="9"/>
       <c r="B74" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="9"/>
       <c r="B75" t="s">
         <v>383</v>
       </c>
@@ -5564,7 +5794,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="9" t="s">
         <v>408</v>
       </c>
       <c r="B79" t="s">
@@ -5572,7 +5802,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="9"/>
       <c r="B80" t="s">
         <v>354</v>
       </c>
@@ -5586,7 +5816,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="9" t="s">
         <v>406</v>
       </c>
       <c r="B82" t="s">
@@ -5594,7 +5824,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="9"/>
       <c r="B83" t="s">
         <v>239</v>
       </c>
@@ -5624,7 +5854,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B87" t="s">
@@ -5632,7 +5862,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="9"/>
       <c r="B88" t="s">
         <v>174</v>
       </c>
@@ -5662,7 +5892,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="9" t="s">
         <v>221</v>
       </c>
       <c r="B92" t="s">
@@ -5670,7 +5900,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="7"/>
+      <c r="A93" s="9"/>
       <c r="B93" t="s">
         <v>174</v>
       </c>
@@ -5684,7 +5914,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B95" t="s">
@@ -5692,7 +5922,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="9"/>
       <c r="B96" t="s">
         <v>174</v>
       </c>
@@ -5754,7 +5984,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
@@ -5762,25 +5992,25 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="9"/>
       <c r="B105" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="9"/>
       <c r="B106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="9"/>
       <c r="B107" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="9" t="s">
         <v>288</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -5788,13 +6018,13 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="7"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="4" t="s">
         <v>382</v>
       </c>
@@ -5824,7 +6054,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B114" t="s">
@@ -5832,7 +6062,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="9"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -5846,7 +6076,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B117" t="s">
@@ -5854,7 +6084,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="9"/>
       <c r="B118" t="s">
         <v>232</v>
       </c>
@@ -5892,7 +6122,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B123" t="s">
@@ -5900,13 +6130,13 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="7"/>
+      <c r="A124" s="9"/>
       <c r="B124" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="7"/>
+      <c r="A125" s="9"/>
       <c r="B125" t="s">
         <v>174</v>
       </c>
@@ -5976,7 +6206,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="9" t="s">
         <v>402</v>
       </c>
       <c r="B134" t="s">
@@ -5984,19 +6214,19 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="7"/>
+      <c r="A135" s="9"/>
       <c r="B135" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="7"/>
+      <c r="A136" s="9"/>
       <c r="B136" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="9" t="s">
         <v>403</v>
       </c>
       <c r="B137" t="s">
@@ -6004,7 +6234,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="4" t="s">
         <v>108</v>
       </c>
@@ -6026,7 +6256,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="9" t="s">
         <v>404</v>
       </c>
       <c r="B141" t="s">
@@ -6034,13 +6264,13 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="7"/>
+      <c r="A142" s="9"/>
       <c r="B142" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="7"/>
+      <c r="A143" s="9"/>
       <c r="B143" t="s">
         <v>383</v>
       </c>
@@ -6062,7 +6292,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="9" t="s">
         <v>405</v>
       </c>
       <c r="B146" t="s">
@@ -6070,13 +6300,13 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="7"/>
+      <c r="A147" s="9"/>
       <c r="B147" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B148" t="s">
@@ -6084,7 +6314,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="7"/>
+      <c r="A149" s="9"/>
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -6154,7 +6384,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B158" t="s">
@@ -6162,157 +6392,157 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="7"/>
+      <c r="A159" s="9"/>
       <c r="B159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="7"/>
+      <c r="A160" s="9"/>
       <c r="B160" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="7"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="7"/>
+      <c r="A162" s="9"/>
       <c r="B162" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="7"/>
+      <c r="A163" s="9"/>
       <c r="B163" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="7"/>
+      <c r="A164" s="9"/>
       <c r="B164" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="7"/>
+      <c r="A165" s="9"/>
       <c r="B165" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="7"/>
+      <c r="A166" s="9"/>
       <c r="B166" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="7"/>
+      <c r="A167" s="9"/>
       <c r="B167" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="7"/>
+      <c r="A168" s="9"/>
       <c r="B168" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="7"/>
+      <c r="A169" s="9"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="7"/>
+      <c r="A170" s="9"/>
       <c r="B170" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="7"/>
+      <c r="A171" s="9"/>
       <c r="B171" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="7"/>
+      <c r="A172" s="9"/>
       <c r="B172" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="7"/>
+      <c r="A173" s="9"/>
       <c r="B173" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="7"/>
+      <c r="A174" s="9"/>
       <c r="B174" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="7"/>
+      <c r="A175" s="9"/>
       <c r="B175" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="7"/>
+      <c r="A176" s="9"/>
       <c r="B176" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="7"/>
+      <c r="A177" s="9"/>
       <c r="B177" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="7"/>
+      <c r="A178" s="9"/>
       <c r="B178" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="7"/>
+      <c r="A179" s="9"/>
       <c r="B179" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="7"/>
+      <c r="A180" s="9"/>
       <c r="B180" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="7"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="7"/>
+      <c r="A182" s="9"/>
       <c r="B182" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="7"/>
+      <c r="A183" s="9"/>
       <c r="B183" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="7"/>
+      <c r="A184" s="9"/>
       <c r="B184" t="s">
         <v>383</v>
       </c>
@@ -6397,18 +6627,6 @@
     <sortCondition ref="A75"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A158:A184"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A87:A88"/>
@@ -6423,6 +6641,18 @@
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,14 +6663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -7739,18 +7969,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -8395,7 +8625,7 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8852,29 +9082,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" ht="15">
       <c r="B1">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D1" t="s">
@@ -8982,19 +9212,19 @@
         <v>97</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>492</v>
+        <v>132</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -9012,13 +9242,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>145</v>
+      <c r="F14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -9026,46 +9262,45 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="C16" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>193</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>186</v>
+        <v>504</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -9075,16 +9310,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>238</v>
+      <c r="H17" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -9092,13 +9333,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>262</v>
+      <c r="G18" s="4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -9109,7 +9356,13 @@
         <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>272</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -9119,6 +9372,12 @@
       <c r="C20" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21">
@@ -9127,37 +9386,49 @@
       <c r="C21" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="D21" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>349</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -9171,11 +9442,21 @@
       <c r="D24" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="E24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="G30" s="4"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9189,10 +9470,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -11265,8 +11546,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11279,15 +11561,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -12834,17 +13116,17 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -13028,7 +13310,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -13039,7 +13321,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -13048,7 +13330,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -13059,7 +13341,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -13068,7 +13350,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -13079,8 +13361,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -13088,15 +13370,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -13124,7 +13406,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -13135,7 +13417,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -13144,7 +13426,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -13155,8 +13437,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -13167,59 +13449,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -13230,56 +13512,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -13288,7 +13570,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -13299,8 +13581,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -13308,35 +13590,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -13347,8 +13629,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -13356,22 +13638,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -13380,21 +13662,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -13405,8 +13687,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -13414,8 +13696,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -13432,7 +13714,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -13443,8 +13725,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -13455,8 +13737,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -13465,7 +13747,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -13476,7 +13758,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="7"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -13485,7 +13767,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="9" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -13496,8 +13778,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -13505,8 +13787,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -13523,7 +13805,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -13534,7 +13816,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="7"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -13552,7 +13834,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -13563,8 +13845,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -13572,28 +13854,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -13604,8 +13886,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -13613,14 +13895,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -13631,7 +13913,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="7"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -13649,7 +13931,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -13660,8 +13942,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -13672,24 +13954,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -13700,8 +13982,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -13710,22 +13992,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -13734,29 +14016,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -13768,8 +14050,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -13778,7 +14060,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="7"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -13787,7 +14069,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -13798,7 +14080,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="7"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -13807,7 +14089,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -13818,8 +14100,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -13827,21 +14109,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="9" t="s">
         <v>488</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -13852,7 +14134,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="7"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -13872,10 +14154,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -13898,8 +14180,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -13914,8 +14196,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -13939,8 +14221,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -13955,8 +14237,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -13965,8 +14247,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -13978,8 +14260,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -13991,8 +14273,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -14001,8 +14283,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -14011,8 +14293,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -14024,8 +14306,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -14033,29 +14315,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -14064,15 +14346,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -14081,15 +14363,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -14098,8 +14380,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -14119,7 +14401,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="9" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -14130,7 +14412,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="7"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -14139,7 +14421,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -14150,8 +14432,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7" t="s">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -14159,8 +14441,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -14169,8 +14451,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -14179,7 +14461,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -14190,7 +14472,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="7"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -14211,7 +14493,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -14222,7 +14504,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="7"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -14231,7 +14513,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -14242,7 +14524,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="7"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -14251,7 +14533,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -14262,7 +14544,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="7"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -14271,7 +14553,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -14282,8 +14564,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7" t="s">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -14294,14 +14576,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -14312,7 +14594,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="7"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -14324,10 +14606,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -14335,22 +14617,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -14364,21 +14646,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -14389,7 +14671,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="7"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -14409,7 +14691,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -14420,7 +14702,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="7"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -14429,7 +14711,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -14440,8 +14722,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -14464,8 +14746,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -14474,7 +14756,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -14485,7 +14767,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="7"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -14494,7 +14776,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -14505,8 +14787,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7" t="s">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -14514,8 +14796,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -14524,8 +14806,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -14542,7 +14824,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="9" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -14553,7 +14835,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="7"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -14562,7 +14844,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="9" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -14573,8 +14855,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7" t="s">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -14582,8 +14864,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -14595,8 +14877,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -14613,7 +14895,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -14624,7 +14906,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="7"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -14633,7 +14915,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -14644,8 +14926,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7" t="s">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -14653,21 +14935,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -14678,8 +14960,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7" t="s">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -14696,21 +14978,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -14721,7 +15003,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="7"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -14730,7 +15012,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -14741,7 +15023,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="7"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -14753,7 +15035,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -14764,8 +15046,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7" t="s">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -14773,8 +15055,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -14794,10 +15076,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -14808,31 +15090,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -14846,8 +15128,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -14862,8 +15144,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="9"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -14881,8 +15163,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -14894,8 +15176,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -14907,15 +15189,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -14927,8 +15209,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -14943,8 +15225,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -14953,8 +15235,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -14966,7 +15248,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -14977,7 +15259,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="7"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -14986,7 +15268,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -14997,7 +15279,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="7"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -15006,7 +15288,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -15017,8 +15299,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7" t="s">
+      <c r="A214" s="9"/>
+      <c r="B214" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -15026,8 +15308,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -15039,29 +15321,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -15078,10 +15360,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -15089,15 +15371,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7" t="s">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -15114,22 +15396,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -15138,8 +15420,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -15148,15 +15430,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -15165,15 +15447,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="A231" s="9"/>
+      <c r="B231" s="9"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -15188,8 +15470,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="9"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -15198,10 +15480,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -15215,15 +15497,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="9"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="A235" s="9"/>
+      <c r="B235" s="9"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -15232,29 +15514,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="A237" s="9"/>
+      <c r="B237" s="9"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -15263,15 +15545,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="A241" s="9"/>
+      <c r="B241" s="9"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -15280,8 +15562,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -15290,8 +15572,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="A243" s="9"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -15300,7 +15582,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -15311,8 +15593,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7" t="s">
+      <c r="A245" s="9"/>
+      <c r="B245" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -15320,8 +15602,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="A246" s="9"/>
+      <c r="B246" s="9"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -15330,7 +15612,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -15341,7 +15623,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="7"/>
+      <c r="A248" s="9"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -15350,7 +15632,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -15361,7 +15643,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="7"/>
+      <c r="A250" s="9"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -15370,7 +15652,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="7" t="s">
+      <c r="A251" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -15381,8 +15663,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7" t="s">
+      <c r="A252" s="9"/>
+      <c r="B252" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -15396,8 +15678,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="A253" s="9"/>
+      <c r="B253" s="9"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -15406,15 +15688,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="A254" s="9"/>
+      <c r="B254" s="9"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="9"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -15429,14 +15711,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="A256" s="9"/>
+      <c r="B256" s="9"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="9" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -15447,7 +15729,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="7"/>
+      <c r="A258" s="9"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -15468,7 +15750,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -15479,7 +15761,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="7"/>
+      <c r="A260" s="9"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -15488,7 +15770,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -15499,7 +15781,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="7"/>
+      <c r="A262" s="9"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -15508,7 +15790,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -15519,7 +15801,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="7"/>
+      <c r="A264" s="9"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -15544,11 +15826,81 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -15565,81 +15917,11 @@
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B214:B219"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A208"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15654,10 +15936,10 @@
       <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:3">
@@ -15809,14 +16091,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
-    <col min="5" max="5" width="34.6328125" customWidth="1"/>
-    <col min="6" max="6" width="61.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -15929,51 +16211,73 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C34"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C34"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="65.125" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>395</v>
       </c>
       <c r="C1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="D1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="D2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="C4" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="C5" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4">
       <c r="B8" s="4"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:4">
       <c r="B15" s="4"/>
     </row>
     <row r="21" spans="2:2">
@@ -16023,15 +16327,15 @@
       <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">

--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="512">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -2155,9 +2155,6 @@
   </si>
   <si>
     <t>往往导致关键路径改变</t>
-  </si>
-  <si>
-    <t>把技术成果与计划比较</t>
   </si>
   <si>
     <t>成本绩效与预算的偏差，包括“偏差分析”，“趋势分析”和“挣值绩效”</t>
@@ -2766,6 +2763,34 @@
   </si>
   <si>
     <t>资源日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把技术成果与计划比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购绩效审查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查与审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对项目绩效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差与趋势分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注项目绩效和趋势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3439,7 +3464,7 @@
         <v>88</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3447,7 +3472,7 @@
         <v>87</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3596,7 +3621,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
@@ -4080,7 +4105,7 @@
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s">
         <v>173</v>
@@ -4088,7 +4113,7 @@
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -4096,7 +4121,7 @@
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s">
         <v>173</v>
@@ -4104,7 +4129,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s">
         <v>173</v>
@@ -4112,7 +4137,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B76" t="s">
         <v>173</v>
@@ -4120,7 +4145,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B77" t="s">
         <v>173</v>
@@ -4131,7 +4156,7 @@
         <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4139,7 +4164,7 @@
         <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4147,7 +4172,7 @@
         <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4155,7 +4180,7 @@
         <v>219</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4163,7 +4188,7 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4171,7 +4196,7 @@
         <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4179,7 +4204,7 @@
         <v>220</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4187,7 +4212,7 @@
         <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4195,7 +4220,7 @@
         <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4203,7 +4228,7 @@
         <v>224</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4211,7 +4236,7 @@
         <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4219,13 +4244,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" t="s">
         <v>419</v>
-      </c>
-      <c r="D91" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4233,7 +4258,7 @@
         <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4241,13 +4266,13 @@
         <v>220</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C93" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" t="s">
         <v>415</v>
-      </c>
-      <c r="D93" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4255,7 +4280,7 @@
         <v>221</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8625,7 +8650,7 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9082,7 +9107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -9108,10 +9133,10 @@
         <v>100</v>
       </c>
       <c r="D1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" t="s">
         <v>490</v>
-      </c>
-      <c r="E1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -9212,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>111</v>
@@ -9224,12 +9249,12 @@
         <v>132</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9254,7 +9279,7 @@
         <v>111</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -9294,7 +9319,7 @@
         <v>193</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>103</v>
@@ -9319,7 +9344,7 @@
         <v>238</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>104</v>
@@ -9336,7 +9361,7 @@
         <v>262</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>111</v>
@@ -9345,7 +9370,7 @@
         <v>263</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -9356,7 +9381,7 @@
         <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>272</v>
@@ -9373,7 +9398,7 @@
         <v>300</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>111</v>
@@ -9387,7 +9412,7 @@
         <v>183</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>111</v>
@@ -9418,13 +9443,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>111</v>
@@ -9446,7 +9471,7 @@
         <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -13577,7 +13602,7 @@
         <v>391</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13586,14 +13611,14 @@
         <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13969,7 +13994,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>391</v>
@@ -13978,7 +14003,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -14065,7 +14090,7 @@
         <v>390</v>
       </c>
       <c r="C99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -14124,7 +14149,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>391</v>
@@ -14139,7 +14164,7 @@
         <v>390</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -15811,13 +15836,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C265" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -15846,6 +15871,11 @@
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B199:B208"/>
     <mergeCell ref="A189:A190"/>
     <mergeCell ref="B192:B193"/>
@@ -15869,11 +15899,6 @@
     <mergeCell ref="A209:A210"/>
     <mergeCell ref="A211:A212"/>
     <mergeCell ref="B214:B219"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="B152:B154"/>
     <mergeCell ref="A149:A154"/>
@@ -15930,10 +15955,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:C34"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15942,139 +15967,163 @@
     <col min="3" max="3" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+    </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
-        <v>218</v>
+      <c r="B7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
-        <v>217</v>
+      <c r="B8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" t="s">
-        <v>462</v>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>405</v>
+        <v>510</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" t="s">
-        <v>414</v>
+      <c r="B18" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C19" t="s">
-        <v>413</v>
+      <c r="B19" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="4" t="s">
-        <v>344</v>
+        <v>409</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
-        <v>343</v>
+        <v>410</v>
+      </c>
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C28" t="s">
-        <v>412</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" t="s">
-        <v>418</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" t="s">
-        <v>464</v>
+        <v>507</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -16103,27 +16152,27 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="C1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>300</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -16137,18 +16186,18 @@
         <v>305</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>404</v>
@@ -16162,7 +16211,7 @@
         <v>358</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -16170,10 +16219,10 @@
         <v>278</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -16232,7 +16281,7 @@
         <v>398</v>
       </c>
       <c r="D1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -16243,7 +16292,7 @@
         <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -16251,10 +16300,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -16262,10 +16311,10 @@
         <v>401</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -16354,16 +16403,16 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
         <v>429</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>430</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>431</v>
-      </c>
-      <c r="F3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -16404,16 +16453,16 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" t="s">
         <v>434</v>
-      </c>
-      <c r="D9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E9" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -16443,7 +16492,7 @@
         <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16489,7 +16538,7 @@
         <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16551,7 +16600,7 @@
         <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -16562,7 +16611,7 @@
         <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -16573,19 +16622,19 @@
         <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" t="s">
         <v>442</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>443</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>444</v>
-      </c>
-      <c r="G31" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -16596,16 +16645,16 @@
         <v>140</v>
       </c>
       <c r="C32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" t="s">
         <v>446</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>447</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>448</v>
-      </c>
-      <c r="F32" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16632,7 +16681,7 @@
         <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16678,7 +16727,7 @@
         <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16689,7 +16738,7 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16740,7 +16789,7 @@
         <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -16783,7 +16832,7 @@
         <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -16810,16 +16859,16 @@
         <v>171</v>
       </c>
       <c r="C62" t="s">
+        <v>454</v>
+      </c>
+      <c r="D62" t="s">
         <v>455</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>456</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>457</v>
-      </c>
-      <c r="F62" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -16840,7 +16889,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s">
         <v>172</v>
@@ -16848,7 +16897,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s">
         <v>172</v>
@@ -16856,7 +16905,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s">
         <v>172</v>
@@ -16870,7 +16919,7 @@
         <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
@@ -16878,7 +16927,7 @@
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s">
         <v>173</v>
@@ -16886,29 +16935,29 @@
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
         <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s">
         <v>173</v>
@@ -16916,7 +16965,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s">
         <v>173</v>
@@ -16924,13 +16973,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s">
         <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -16938,7 +16987,7 @@
         <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -16946,7 +16995,7 @@
         <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -16954,10 +17003,10 @@
         <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -16965,7 +17014,7 @@
         <v>219</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
         <v>410</v>
@@ -16979,13 +17028,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C82" t="s">
+        <v>418</v>
+      </c>
+      <c r="D82" t="s">
         <v>419</v>
-      </c>
-      <c r="D82" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -16993,7 +17042,7 @@
         <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -17001,13 +17050,13 @@
         <v>220</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C84" t="s">
+        <v>414</v>
+      </c>
+      <c r="D84" t="s">
         <v>415</v>
-      </c>
-      <c r="D84" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -17015,7 +17064,7 @@
         <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -17023,7 +17072,7 @@
         <v>222</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -17031,7 +17080,7 @@
         <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -17039,7 +17088,7 @@
         <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -17047,7 +17096,7 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -17055,7 +17104,7 @@
         <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -17063,7 +17112,7 @@
         <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -17071,7 +17120,7 @@
         <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
     <sheet name="input" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
-    <sheet name="sorted_input" sheetId="8" r:id="rId4"/>
-    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId5"/>
-    <sheet name="Confused_tech" sheetId="12" r:id="rId6"/>
-    <sheet name="Confused_Process" sheetId="15" r:id="rId7"/>
-    <sheet name="Confused_doc" sheetId="14" r:id="rId8"/>
-    <sheet name="tech" sheetId="4" r:id="rId9"/>
-    <sheet name="tech (2)" sheetId="13" r:id="rId10"/>
-    <sheet name="sorted_tech" sheetId="10" r:id="rId11"/>
-    <sheet name="output" sheetId="5" r:id="rId12"/>
-    <sheet name="sorted_output" sheetId="9" r:id="rId13"/>
-    <sheet name="docs" sheetId="16" r:id="rId14"/>
+    <sheet name="sorted_input" sheetId="8" r:id="rId3"/>
+    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId4"/>
+    <sheet name="Confused_tech" sheetId="12" r:id="rId5"/>
+    <sheet name="Confused_Process" sheetId="15" r:id="rId6"/>
+    <sheet name="Confused_doc" sheetId="14" r:id="rId7"/>
+    <sheet name="tech" sheetId="4" r:id="rId8"/>
+    <sheet name="tech (2)" sheetId="13" r:id="rId9"/>
+    <sheet name="sorted_tech" sheetId="10" r:id="rId10"/>
+    <sheet name="output" sheetId="5" r:id="rId11"/>
+    <sheet name="sorted_output" sheetId="9" r:id="rId12"/>
+    <sheet name="docs" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="515">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -2793,6 +2792,17 @@
     <t>关注项目绩效和趋势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>验收的可交付成果</t>
+  </si>
+  <si>
+    <t>5.5 确认范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3 控制质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2865,7 +2875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2879,10 +2889,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3200,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3635,1624 +3648,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D239"/>
-  <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:D93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B81" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B90" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" t="s">
-        <v>426</v>
-      </c>
-      <c r="C91" t="s">
-        <v>418</v>
-      </c>
-      <c r="D91" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" t="s">
-        <v>426</v>
-      </c>
-      <c r="C93" t="s">
-        <v>414</v>
-      </c>
-      <c r="D93" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B115" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B126" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B130" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B132" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B134" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B163" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B166" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B167" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B170" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B171" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B172" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B173" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B175" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B177" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B178" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B179" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B181" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B184" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B185" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B190" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B196" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B197" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B198" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B201" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B202" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B203" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B213" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B214" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B216" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B217" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B218" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B219" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B221" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B222" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B223" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B225" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B226" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B227" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B230" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B231" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B237" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B238" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B239" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D214"/>
   <sheetViews>
@@ -5277,7 +3672,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -5285,7 +3680,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -5331,7 +3726,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5339,13 +3734,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
@@ -5353,7 +3748,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
@@ -5383,7 +3778,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="s">
@@ -5391,25 +3786,25 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>323</v>
       </c>
@@ -5447,7 +3842,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B26" t="s">
@@ -5455,13 +3850,13 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -5469,37 +3864,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -5569,7 +3964,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>309</v>
       </c>
       <c r="B43" t="s">
@@ -5577,19 +3972,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B46" t="s">
@@ -5597,13 +3992,13 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>308</v>
       </c>
       <c r="B48" t="s">
@@ -5611,7 +4006,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" t="s">
         <v>302</v>
       </c>
@@ -5697,7 +4092,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B60" t="s">
@@ -5705,91 +4100,91 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
         <v>383</v>
       </c>
@@ -5819,7 +4214,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B79" t="s">
@@ -5827,7 +4222,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" t="s">
         <v>354</v>
       </c>
@@ -5841,7 +4236,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B82" t="s">
@@ -5849,7 +4244,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
         <v>239</v>
       </c>
@@ -5879,7 +4274,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B87" t="s">
@@ -5887,7 +4282,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
         <v>174</v>
       </c>
@@ -5917,7 +4312,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B92" t="s">
@@ -5925,7 +4320,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" t="s">
         <v>174</v>
       </c>
@@ -5939,7 +4334,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B95" t="s">
@@ -5947,7 +4342,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" t="s">
         <v>174</v>
       </c>
@@ -6009,7 +4404,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
@@ -6017,25 +4412,25 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6043,13 +4438,13 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="4" t="s">
         <v>382</v>
       </c>
@@ -6079,7 +4474,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B114" t="s">
@@ -6087,7 +4482,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -6101,7 +4496,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B117" t="s">
@@ -6109,7 +4504,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" t="s">
         <v>232</v>
       </c>
@@ -6147,7 +4542,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B123" t="s">
@@ -6155,13 +4550,13 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" t="s">
         <v>174</v>
       </c>
@@ -6231,7 +4626,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>402</v>
       </c>
       <c r="B134" t="s">
@@ -6239,19 +4634,19 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="8" t="s">
         <v>403</v>
       </c>
       <c r="B137" t="s">
@@ -6259,7 +4654,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
         <v>108</v>
       </c>
@@ -6281,7 +4676,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B141" t="s">
@@ -6289,13 +4684,13 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" t="s">
         <v>383</v>
       </c>
@@ -6317,7 +4712,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B146" t="s">
@@ -6325,13 +4720,13 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B148" t="s">
@@ -6339,7 +4734,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -6409,7 +4804,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B158" t="s">
@@ -6417,157 +4812,157 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" t="s">
         <v>383</v>
       </c>
@@ -6652,6 +5047,18 @@
     <sortCondition ref="A75"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A158:A184"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A87:A88"/>
@@ -6666,30 +5073,18 @@
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7374,7 +5769,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
         <v>256</v>
@@ -7990,11 +6385,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -9103,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
@@ -9491,8 +7886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B304"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11566,19 +9961,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G195"/>
   <sheetViews>
@@ -13133,12 +11515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13155,10 +11537,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C2" t="s">
@@ -13178,8 +11560,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>135</v>
       </c>
@@ -13188,8 +11570,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>169</v>
       </c>
@@ -13210,8 +11592,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>231</v>
       </c>
@@ -13220,15 +11602,15 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>275</v>
       </c>
@@ -13237,8 +11619,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>301</v>
       </c>
@@ -13247,8 +11629,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>313</v>
       </c>
@@ -13263,15 +11645,15 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>380</v>
       </c>
@@ -13280,9 +11662,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>391</v>
       </c>
@@ -13294,7 +11674,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -13306,8 +11686,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C14" t="s">
@@ -13315,8 +11695,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>276</v>
       </c>
@@ -13328,14 +11708,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -13346,7 +11726,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -13355,7 +11735,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -13366,7 +11746,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -13375,7 +11755,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -13386,8 +11766,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -13395,15 +11775,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -13431,7 +11811,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -13442,7 +11822,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -13451,7 +11831,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -13462,8 +11842,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -13474,59 +11854,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -13537,56 +11917,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -13595,7 +11975,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -13606,8 +11986,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -13615,35 +11995,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -13654,8 +12034,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -13663,22 +12043,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -13687,21 +12067,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -13712,8 +12092,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -13721,8 +12101,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -13739,7 +12119,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -13750,8 +12130,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -13762,8 +12142,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -13772,7 +12152,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -13783,7 +12163,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -13792,7 +12172,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -13803,8 +12183,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -13812,8 +12192,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -13830,7 +12210,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -13841,7 +12221,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -13859,7 +12239,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -13870,8 +12250,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -13879,28 +12259,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -13911,8 +12291,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -13920,14 +12300,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -13938,7 +12318,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -13956,7 +12336,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -13967,8 +12347,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -13979,24 +12359,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -14007,8 +12387,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -14017,22 +12397,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -14041,29 +12421,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -14075,8 +12455,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -14085,7 +12465,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -14094,7 +12474,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -14105,7 +12485,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -14114,7 +12494,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -14125,8 +12505,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -14134,21 +12514,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>487</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -14159,7 +12539,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -14179,10 +12559,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -14205,8 +12585,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -14221,8 +12601,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -14246,8 +12626,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -14262,8 +12642,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -14272,8 +12652,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -14285,8 +12665,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -14298,8 +12678,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -14308,8 +12688,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -14318,8 +12698,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -14331,8 +12711,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -14340,29 +12720,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -14371,15 +12751,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -14388,15 +12768,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -14405,8 +12785,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -14426,7 +12806,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -14437,7 +12817,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -14446,7 +12826,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -14457,8 +12837,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9" t="s">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -14466,8 +12846,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -14476,8 +12856,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -14486,7 +12866,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -14497,7 +12877,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -14518,7 +12898,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -14529,7 +12909,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -14538,7 +12918,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -14549,7 +12929,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -14558,7 +12938,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -14569,7 +12949,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -14578,7 +12958,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -14589,8 +12969,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -14601,14 +12981,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -14619,7 +12999,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -14631,10 +13011,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -14642,22 +13022,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -14671,21 +13051,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -14696,7 +13076,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -14716,7 +13096,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -14727,7 +13107,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -14736,7 +13116,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -14747,8 +13127,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -14771,8 +13151,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -14781,7 +13161,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -14792,7 +13172,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -14801,7 +13181,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -14812,8 +13192,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -14821,8 +13201,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -14831,8 +13211,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -14849,7 +13229,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -14860,7 +13240,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -14869,7 +13249,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="8" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -14880,8 +13260,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -14889,8 +13269,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -14902,8 +13282,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -14920,7 +13300,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -14931,7 +13311,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -14940,7 +13320,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -14951,8 +13331,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -14960,21 +13340,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -14985,8 +13365,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9" t="s">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -15003,21 +13383,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -15028,7 +13408,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -15037,7 +13417,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -15048,7 +13428,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -15060,7 +13440,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -15071,8 +13451,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9" t="s">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -15080,8 +13460,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -15101,10 +13481,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -15115,31 +13495,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -15153,8 +13533,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -15169,8 +13549,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -15188,8 +13568,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -15201,8 +13581,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -15214,15 +13594,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -15234,8 +13614,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -15250,8 +13630,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -15260,8 +13640,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -15273,7 +13653,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -15284,7 +13664,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="9"/>
+      <c r="A210" s="8"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -15293,7 +13673,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -15304,7 +13684,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="9"/>
+      <c r="A212" s="8"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -15313,7 +13693,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -15324,8 +13704,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9" t="s">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -15333,8 +13713,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -15346,29 +13726,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -15385,10 +13765,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -15396,15 +13776,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9" t="s">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -15421,22 +13801,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -15445,8 +13825,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -15455,15 +13835,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -15472,15 +13852,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -15495,8 +13875,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -15505,10 +13885,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -15522,15 +13902,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -15539,29 +13919,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -15570,15 +13950,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -15587,8 +13967,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -15597,8 +13977,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -15607,7 +13987,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -15618,8 +13998,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9" t="s">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -15627,8 +14007,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -15637,7 +14017,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -15648,7 +14028,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="9"/>
+      <c r="A248" s="8"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -15657,7 +14037,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -15668,7 +14048,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="9"/>
+      <c r="A250" s="8"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -15677,7 +14057,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -15688,8 +14068,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="9"/>
-      <c r="B252" s="9" t="s">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -15703,8 +14083,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -15713,15 +14093,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -15736,14 +14116,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -15754,7 +14134,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="9"/>
+      <c r="A258" s="8"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -15775,7 +14155,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -15786,7 +14166,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="9"/>
+      <c r="A260" s="8"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -15795,7 +14175,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="8" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -15806,7 +14186,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="9"/>
+      <c r="A262" s="8"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -15815,7 +14195,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -15826,7 +14206,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="9"/>
+      <c r="A264" s="8"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -15851,38 +14231,54 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
     <mergeCell ref="B252:B256"/>
     <mergeCell ref="A251:A256"/>
     <mergeCell ref="A257:A258"/>
@@ -15899,65 +14295,49 @@
     <mergeCell ref="A209:A210"/>
     <mergeCell ref="A211:A212"/>
     <mergeCell ref="B214:B219"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A160:A162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -16132,12 +14512,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16225,32 +14605,54 @@
         <v>480</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
     <row r="10" spans="2:6">
-      <c r="C10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="E11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:6">
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="F14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:6">
       <c r="F15" s="4"/>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="4"/>
+    <row r="16" spans="2:6">
+      <c r="F16" s="4"/>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16258,7 +14660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
@@ -16368,7 +14770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G238"/>
   <sheetViews>
@@ -18090,4 +16492,1622 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:D93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B174" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B201" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B218" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B221" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B222" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B223" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B225" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B230" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B238" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B239" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDENG\Documents\github\documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeng\Documents\GitHub\documents\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="752" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="tech (2)" sheetId="13" r:id="rId9"/>
     <sheet name="sorted_tech" sheetId="10" r:id="rId10"/>
     <sheet name="output" sheetId="5" r:id="rId11"/>
-    <sheet name="sorted_output" sheetId="9" r:id="rId12"/>
-    <sheet name="docs" sheetId="16" r:id="rId13"/>
+    <sheet name="control_outputs" sheetId="17" r:id="rId12"/>
+    <sheet name="sorted_output" sheetId="9" r:id="rId13"/>
+    <sheet name="docs" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="515">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -322,7 +323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -363,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -388,7 +389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -429,7 +430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -458,7 +459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -559,7 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -592,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -609,7 +610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +631,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -641,7 +642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -686,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -783,7 +784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -800,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -851,7 +852,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -868,7 +869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -885,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1122,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1139,7 +1140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1172,7 +1173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1193,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1266,7 +1267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1283,7 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1300,7 +1301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1389,7 +1390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1406,7 +1407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1519,7 +1520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1536,7 +1537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1553,7 +1554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1606,7 +1607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1643,7 +1644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1660,7 +1661,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1677,7 +1678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1694,7 +1695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1711,7 +1712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1836,7 +1837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1857,7 +1858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1874,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1991,7 +1992,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2008,7 +2009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2029,7 +2030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2062,7 +2063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2078,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2202,7 +2203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2394,7 +2395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2405,7 +2406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2416,7 +2417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2427,7 +2428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2448,7 +2449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2465,7 +2466,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2482,7 +2483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2507,7 +2508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2550,7 +2551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2561,7 +2562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2571,7 +2572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2582,7 +2583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2592,7 +2593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2603,7 +2604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2613,7 +2614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2630,7 +2631,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2647,7 +2648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2658,7 +2659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2668,7 +2669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2685,7 +2686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2706,7 +2707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2723,7 +2724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2734,7 +2735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2744,7 +2745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2808,17 +2809,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2826,7 +2827,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2835,8 +2836,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2875,7 +2892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2889,14 +2906,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3217,11 +3236,11 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="97.5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="97.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3260,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5">
+    <row r="6" spans="1:2" ht="29">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3608,7 +3627,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="28.5">
+    <row r="54" spans="1:2" ht="29">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3616,7 +3635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5">
+    <row r="55" spans="1:2" ht="29">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -3624,7 +3643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5">
+    <row r="56" spans="1:2" ht="29">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -3649,18 +3668,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D214"/>
+  <dimension ref="A2:D215"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C187" sqref="A2:D190"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3672,7 +3691,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -3680,7 +3699,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -3726,7 +3745,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3734,174 +3753,176 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>211</v>
+      <c r="A12" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>141</v>
+        <v>297</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>248</v>
+      <c r="A15" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s">
-        <v>323</v>
+      <c r="A21" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9"/>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9"/>
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4" t="s">
-        <v>352</v>
+      <c r="A33" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s">
         <v>320</v>
@@ -3909,15 +3930,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
         <v>320</v>
@@ -3925,7 +3946,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
         <v>323</v>
@@ -3933,7 +3954,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
         <v>320</v>
@@ -3941,51 +3962,49 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>333</v>
+      <c r="A41" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="8"/>
-      <c r="B44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s">
         <v>301</v>
@@ -3998,620 +4017,618 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="9" t="s">
-        <v>308</v>
+      <c r="A48" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="B48" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
+        <v>386</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" t="s">
-        <v>140</v>
+        <v>295</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>278</v>
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>352</v>
+        <v>370</v>
+      </c>
+      <c r="B56" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>370</v>
+      <c r="A58" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" t="s">
-        <v>319</v>
+      <c r="A59" s="9"/>
+      <c r="B59" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="A60" s="9"/>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="4" t="s">
-        <v>108</v>
+      <c r="A61" s="9"/>
+      <c r="B61" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8"/>
-      <c r="B75" t="s">
-        <v>383</v>
+      <c r="A75" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B76" t="s">
-        <v>322</v>
+        <v>292</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>277</v>
+      <c r="A77" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>277</v>
+      <c r="A78" s="9"/>
+      <c r="B78" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="8" t="s">
-        <v>408</v>
+      <c r="A79" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9" t="s">
+        <v>406</v>
+      </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
-        <v>407</v>
-      </c>
+      <c r="A81" s="9"/>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="8" t="s">
-        <v>406</v>
+      <c r="A82" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
-        <v>166</v>
+      <c r="A85" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="A86" s="9"/>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
+      <c r="A87" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>352</v>
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="4" t="s">
-        <v>151</v>
+      <c r="A90" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="A91" s="9"/>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="8" t="s">
-        <v>221</v>
+      <c r="A92" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B92" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="B93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9"/>
+      <c r="B94" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
-        <v>220</v>
+      <c r="A95" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="8"/>
+      <c r="A96" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B97" t="s">
-        <v>237</v>
+        <v>289</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>277</v>
+        <v>345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>345</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>208</v>
+      <c r="A102" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="A103" s="9"/>
       <c r="B103" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="A104" s="9"/>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="8"/>
-      <c r="B106" t="s">
-        <v>147</v>
+      <c r="A106" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="8"/>
-      <c r="B107" t="s">
-        <v>232</v>
+      <c r="A107" s="9"/>
+      <c r="B107" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>288</v>
-      </c>
+      <c r="A108" s="9"/>
       <c r="B108" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B111" t="s">
-        <v>275</v>
+        <v>294</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>277</v>
+      <c r="A112" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>277</v>
+      <c r="A113" s="9"/>
+      <c r="B113" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>212</v>
+      <c r="A114" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="B114" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
-        <v>244</v>
+      <c r="A116" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9"/>
+      <c r="B117" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="8"/>
-      <c r="B118" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="9"/>
+      <c r="B119" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B119" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B122" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="8" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="8"/>
-      <c r="B124" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="9"/>
+      <c r="B125" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="8"/>
-      <c r="B125" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="9"/>
+      <c r="B126" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B127" t="s">
-        <v>319</v>
+        <v>365</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" t="s">
-        <v>239</v>
+        <v>290</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
         <v>140</v>
@@ -4619,410 +4636,415 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="8"/>
-      <c r="B135" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="9"/>
+      <c r="B136" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="8"/>
-      <c r="B136" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="9"/>
+      <c r="B137" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="8" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="4" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="9"/>
+      <c r="B139" s="4" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="8" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="8"/>
-      <c r="B142" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="9"/>
+      <c r="B143" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="8"/>
-      <c r="B143" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="9"/>
+      <c r="B144" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B144" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B145" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="8" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="8"/>
-      <c r="B147" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="9"/>
+      <c r="B148" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="8" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="8"/>
-      <c r="B149" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="9"/>
+      <c r="B150" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B150" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="8" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="8"/>
-      <c r="B159" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="9"/>
+      <c r="B160" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="8"/>
-      <c r="B160" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="9"/>
+      <c r="B161" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="8"/>
-      <c r="B161" s="4" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="9"/>
+      <c r="B162" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="8"/>
-      <c r="B162" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="9"/>
+      <c r="B163" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="8"/>
-      <c r="B163" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="9"/>
+      <c r="B164" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="8"/>
-      <c r="B164" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="9"/>
+      <c r="B165" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="8"/>
-      <c r="B165" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="9"/>
+      <c r="B166" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="8"/>
-      <c r="B166" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="9"/>
+      <c r="B167" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="8"/>
-      <c r="B167" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="9"/>
+      <c r="B168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="8"/>
-      <c r="B168" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="9"/>
+      <c r="B169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="8"/>
-      <c r="B169" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="9"/>
+      <c r="B170" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="8"/>
-      <c r="B170" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" s="9"/>
+      <c r="B171" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="8"/>
-      <c r="B171" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="9"/>
+      <c r="B172" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="8"/>
-      <c r="B172" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" s="9"/>
+      <c r="B173" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="8"/>
-      <c r="B173" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="9"/>
+      <c r="B174" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="8"/>
-      <c r="B174" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="9"/>
+      <c r="B175" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="8"/>
-      <c r="B175" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="9"/>
+      <c r="B176" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="8"/>
-      <c r="B176" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="9"/>
+      <c r="B177" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="8"/>
-      <c r="B177" t="s">
+    <row r="178" spans="1:4">
+      <c r="A178" s="9"/>
+      <c r="B178" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="8"/>
-      <c r="B178" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="9"/>
+      <c r="B179" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="8"/>
-      <c r="B179" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="9"/>
+      <c r="B180" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="8"/>
-      <c r="B180" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="9"/>
+      <c r="B181" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="8"/>
-      <c r="B181" s="4" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="9"/>
+      <c r="B182" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="8"/>
-      <c r="B182" t="s">
+    <row r="183" spans="1:4">
+      <c r="A183" s="9"/>
+      <c r="B183" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="8"/>
-      <c r="B183" t="s">
+    <row r="184" spans="1:4">
+      <c r="A184" s="9"/>
+      <c r="B184" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="8"/>
-      <c r="B184" t="s">
+    <row r="185" spans="1:4">
+      <c r="A185" s="9"/>
+      <c r="B185" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B185" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="4" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187" t="s">
-        <v>410</v>
-      </c>
-      <c r="D187" t="s">
-        <v>409</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="4" t="s">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="B188" t="s">
-        <v>351</v>
+        <v>174</v>
+      </c>
+      <c r="C188" t="s">
+        <v>410</v>
+      </c>
+      <c r="D188" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="4" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B190" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="4"/>
+      <c r="A191" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="4"/>
@@ -5036,43 +5058,47 @@
     <row r="195" spans="1:1">
       <c r="A195" s="4"/>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="4"/>
+    <row r="196" spans="1:1">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:B232">
     <sortCondition ref="A75"/>
   </sortState>
-  <mergeCells count="26">
-    <mergeCell ref="A82:A83"/>
+  <mergeCells count="27">
+    <mergeCell ref="A159:A185"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A158:A184"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A77:A78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5083,14 +5109,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B209"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -6387,20 +6413,289 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="H16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F169"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -7498,7 +7793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
@@ -7506,21 +7801,21 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15">
+    <row r="1" spans="2:14">
       <c r="B1">
         <v>4</v>
       </c>
@@ -7890,10 +8185,10 @@
       <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -9968,15 +10263,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -11519,28 +11814,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C89" activeCellId="6" sqref="C90 C93 C94 C98 D97 C97 C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C2" t="s">
@@ -11561,7 +11856,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>135</v>
       </c>
@@ -11571,7 +11866,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>169</v>
       </c>
@@ -11593,7 +11888,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>231</v>
       </c>
@@ -11603,14 +11898,14 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>275</v>
       </c>
@@ -11620,7 +11915,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>301</v>
       </c>
@@ -11630,7 +11925,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>313</v>
       </c>
@@ -11646,14 +11941,14 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>380</v>
       </c>
@@ -11674,7 +11969,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -11686,8 +11981,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C14" t="s">
@@ -11695,8 +11990,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>276</v>
       </c>
@@ -11708,14 +12003,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -11726,7 +12021,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -11735,7 +12030,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -11746,7 +12041,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -11755,7 +12050,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -11766,8 +12061,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -11775,15 +12070,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -11811,7 +12106,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -11822,7 +12117,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -11831,7 +12126,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -11842,8 +12137,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -11854,59 +12149,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -11917,56 +12212,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -11975,7 +12270,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -11986,8 +12281,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -11995,35 +12290,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -12034,8 +12329,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -12043,22 +12338,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -12067,21 +12362,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -12092,8 +12387,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -12101,8 +12396,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -12119,7 +12414,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -12130,8 +12425,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -12142,8 +12437,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -12152,7 +12447,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -12163,7 +12458,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -12172,7 +12467,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -12183,8 +12478,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -12192,8 +12487,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -12210,7 +12505,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -12221,7 +12516,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -12239,7 +12534,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -12250,8 +12545,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -12259,28 +12554,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -12291,8 +12586,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -12300,14 +12595,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -12318,7 +12613,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -12336,7 +12631,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -12347,8 +12642,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -12359,24 +12654,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -12387,8 +12682,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -12397,22 +12692,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -12421,29 +12716,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -12455,8 +12750,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -12465,7 +12760,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -12474,7 +12769,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -12485,7 +12780,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -12494,7 +12789,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -12505,8 +12800,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -12514,21 +12809,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="9" t="s">
         <v>487</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -12539,7 +12834,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -12559,10 +12854,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -12585,8 +12880,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -12601,8 +12896,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -12626,8 +12921,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -12642,8 +12937,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -12652,8 +12947,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -12665,8 +12960,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -12678,8 +12973,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -12688,8 +12983,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -12698,8 +12993,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -12711,8 +13006,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -12720,29 +13015,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -12751,15 +13046,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -12768,15 +13063,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -12785,8 +13080,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -12806,7 +13101,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="9" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -12817,7 +13112,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="8"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -12826,7 +13121,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -12837,8 +13132,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8" t="s">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -12846,8 +13141,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -12856,8 +13151,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -12866,7 +13161,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -12877,7 +13172,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="8"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -12898,7 +13193,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -12909,7 +13204,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="8"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -12918,7 +13213,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -12929,7 +13224,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="8"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -12938,7 +13233,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -12949,7 +13244,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="8"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -12958,7 +13253,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -12969,8 +13264,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8" t="s">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -12981,14 +13276,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -12999,7 +13294,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="8"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -13011,10 +13306,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -13022,22 +13317,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -13051,21 +13346,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -13076,7 +13371,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="8"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -13096,7 +13391,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -13107,7 +13402,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="8"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -13116,7 +13411,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -13127,8 +13422,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -13151,8 +13446,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -13161,7 +13456,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -13172,7 +13467,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="8"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -13181,7 +13476,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -13192,8 +13487,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8" t="s">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -13201,8 +13496,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -13211,8 +13506,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -13229,7 +13524,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="9" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -13240,7 +13535,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="8"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -13249,7 +13544,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="9" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -13260,8 +13555,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8" t="s">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -13269,8 +13564,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -13282,8 +13577,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -13300,7 +13595,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -13311,7 +13606,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="8"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -13320,7 +13615,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -13331,8 +13626,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8" t="s">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -13340,21 +13635,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -13365,8 +13660,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8" t="s">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -13383,21 +13678,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -13408,7 +13703,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="8"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -13417,7 +13712,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -13428,7 +13723,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="8"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -13440,7 +13735,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -13451,8 +13746,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8" t="s">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -13460,8 +13755,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -13481,10 +13776,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -13495,31 +13790,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -13533,8 +13828,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -13549,8 +13844,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="9"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -13568,8 +13863,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -13581,8 +13876,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -13594,15 +13889,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -13614,8 +13909,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -13630,8 +13925,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -13640,8 +13935,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -13653,7 +13948,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -13664,7 +13959,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="8"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -13673,7 +13968,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -13684,7 +13979,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="8"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -13693,7 +13988,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -13704,8 +13999,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8" t="s">
+      <c r="A214" s="9"/>
+      <c r="B214" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -13713,8 +14008,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -13726,29 +14021,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -13765,10 +14060,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -13776,15 +14071,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8" t="s">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -13801,22 +14096,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -13825,8 +14120,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -13835,15 +14130,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -13852,15 +14147,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
+      <c r="A231" s="9"/>
+      <c r="B231" s="9"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -13875,8 +14170,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="9"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -13885,10 +14180,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -13902,15 +14197,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="9"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
+      <c r="A235" s="9"/>
+      <c r="B235" s="9"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -13919,29 +14214,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
+      <c r="A237" s="9"/>
+      <c r="B237" s="9"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -13950,15 +14245,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
+      <c r="A241" s="9"/>
+      <c r="B241" s="9"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -13967,8 +14262,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -13977,8 +14272,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
+      <c r="A243" s="9"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -13987,7 +14282,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -13998,8 +14293,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8" t="s">
+      <c r="A245" s="9"/>
+      <c r="B245" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -14007,8 +14302,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
+      <c r="A246" s="9"/>
+      <c r="B246" s="9"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -14017,7 +14312,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -14028,7 +14323,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="8"/>
+      <c r="A248" s="9"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -14037,7 +14332,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -14048,7 +14343,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="8"/>
+      <c r="A250" s="9"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -14057,7 +14352,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -14068,8 +14363,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8" t="s">
+      <c r="A252" s="9"/>
+      <c r="B252" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -14083,8 +14378,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="9"/>
+      <c r="B253" s="9"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -14093,15 +14388,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="9"/>
+      <c r="B254" s="9"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="9"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -14116,14 +14411,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="9"/>
+      <c r="B256" s="9"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="9" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -14134,7 +14429,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="8"/>
+      <c r="A258" s="9"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -14155,7 +14450,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -14166,7 +14461,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="8"/>
+      <c r="A260" s="9"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -14175,7 +14470,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -14186,7 +14481,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="8"/>
+      <c r="A262" s="9"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -14195,7 +14490,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -14206,7 +14501,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="8"/>
+      <c r="A264" s="9"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -14231,11 +14526,81 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="A221:A232"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -14252,81 +14617,11 @@
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="A221:A232"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B214:B219"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A208"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14341,10 +14636,10 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="65.125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -14516,18 +14811,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="61.75" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14668,11 +14963,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="65.125" customWidth="1"/>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -14774,19 +15069,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G238"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -16498,16 +16793,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D239"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C91" sqref="C91:D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">

--- a/PMP/PMP_Keynotes.xlsx
+++ b/PMP/PMP_Keynotes.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessDef" sheetId="1" r:id="rId1"/>
     <sheet name="input" sheetId="2" r:id="rId2"/>
     <sheet name="sorted_input" sheetId="8" r:id="rId3"/>
-    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId4"/>
-    <sheet name="Confused_tech" sheetId="12" r:id="rId5"/>
-    <sheet name="Confused_Process" sheetId="15" r:id="rId6"/>
-    <sheet name="Confused_doc" sheetId="14" r:id="rId7"/>
-    <sheet name="tech" sheetId="4" r:id="rId8"/>
-    <sheet name="tech (2)" sheetId="13" r:id="rId9"/>
-    <sheet name="sorted_tech" sheetId="10" r:id="rId10"/>
-    <sheet name="output" sheetId="5" r:id="rId11"/>
+    <sheet name="output" sheetId="5" r:id="rId4"/>
+    <sheet name="input_ouput_matrix" sheetId="11" r:id="rId5"/>
+    <sheet name="Confused_tech" sheetId="12" r:id="rId6"/>
+    <sheet name="Confused_Process" sheetId="15" r:id="rId7"/>
+    <sheet name="Confused_doc" sheetId="14" r:id="rId8"/>
+    <sheet name="tech" sheetId="4" r:id="rId9"/>
+    <sheet name="tech (2)" sheetId="13" r:id="rId10"/>
+    <sheet name="sorted_tech" sheetId="10" r:id="rId11"/>
     <sheet name="control_outputs" sheetId="17" r:id="rId12"/>
     <sheet name="sorted_output" sheetId="9" r:id="rId13"/>
     <sheet name="docs" sheetId="16" r:id="rId14"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="515">
   <si>
     <t>制定项目章程</t>
   </si>
@@ -2905,17 +2905,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3232,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3668,10 +3668,1628 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B174" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B201" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B218" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B221" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B222" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B223" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B225" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B230" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B238" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B239" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:A119"/>
+    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3691,7 +5309,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B3" t="s">
@@ -3699,7 +5317,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
@@ -3745,7 +5363,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3753,7 +5371,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>354</v>
       </c>
@@ -3783,7 +5401,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B15" t="s">
@@ -3791,25 +5409,25 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>323</v>
       </c>
@@ -3847,7 +5465,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B24" t="s">
@@ -3855,13 +5473,13 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3869,37 +5487,37 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>381</v>
       </c>
@@ -3969,7 +5587,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B41" t="s">
@@ -3977,19 +5595,19 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>307</v>
       </c>
       <c r="B44" t="s">
@@ -3997,13 +5615,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="11" t="s">
         <v>308</v>
       </c>
       <c r="B46" t="s">
@@ -4011,7 +5629,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="8"/>
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>302</v>
       </c>
@@ -4097,7 +5715,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B58" t="s">
@@ -4105,91 +5723,91 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="B62" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="B64" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="B65" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="B67" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="B69" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
       <c r="B70" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
       <c r="B72" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="10"/>
       <c r="B73" t="s">
         <v>383</v>
       </c>
@@ -4219,7 +5837,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>408</v>
       </c>
       <c r="B77" t="s">
@@ -4227,7 +5845,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
       <c r="B78" t="s">
         <v>354</v>
       </c>
@@ -4241,7 +5859,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>406</v>
       </c>
       <c r="B80" t="s">
@@ -4249,7 +5867,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="B81" t="s">
         <v>239</v>
       </c>
@@ -4279,7 +5897,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>226</v>
       </c>
       <c r="B85" t="s">
@@ -4287,7 +5905,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
       <c r="B86" t="s">
         <v>174</v>
       </c>
@@ -4317,7 +5935,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>221</v>
       </c>
       <c r="B90" t="s">
@@ -4325,7 +5943,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="B91" t="s">
         <v>174</v>
       </c>
@@ -4339,7 +5957,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B93" t="s">
@@ -4347,7 +5965,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="B94" t="s">
         <v>174</v>
       </c>
@@ -4409,7 +6027,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B102" t="s">
@@ -4417,25 +6035,25 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
       <c r="B103" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="9"/>
+      <c r="A104" s="10"/>
       <c r="B104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="10"/>
       <c r="B105" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4443,13 +6061,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="9"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="9"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>382</v>
       </c>
@@ -4479,7 +6097,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="10" t="s">
         <v>212</v>
       </c>
       <c r="B112" t="s">
@@ -4487,13 +6105,13 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="9"/>
+      <c r="A113" s="10"/>
       <c r="B113" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B114" t="s">
@@ -4501,13 +6119,13 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="10"/>
       <c r="B115" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B116" t="s">
@@ -4515,13 +6133,13 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="10"/>
       <c r="B117" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B118" t="s">
@@ -4529,7 +6147,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="9"/>
+      <c r="A119" s="10"/>
       <c r="B119" t="s">
         <v>232</v>
       </c>
@@ -4567,7 +6185,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>209</v>
       </c>
       <c r="B124" t="s">
@@ -4575,13 +6193,13 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="10"/>
       <c r="B125" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="9"/>
+      <c r="A126" s="10"/>
       <c r="B126" t="s">
         <v>174</v>
       </c>
@@ -4651,7 +6269,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="10" t="s">
         <v>402</v>
       </c>
       <c r="B135" t="s">
@@ -4659,19 +6277,19 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="10"/>
       <c r="B136" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="9"/>
+      <c r="A137" s="10"/>
       <c r="B137" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="10" t="s">
         <v>403</v>
       </c>
       <c r="B138" t="s">
@@ -4679,7 +6297,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="9"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>108</v>
       </c>
@@ -4701,7 +6319,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>404</v>
       </c>
       <c r="B142" t="s">
@@ -4709,13 +6327,13 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="10"/>
       <c r="B143" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="9"/>
+      <c r="A144" s="10"/>
       <c r="B144" t="s">
         <v>383</v>
       </c>
@@ -4737,7 +6355,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>405</v>
       </c>
       <c r="B147" t="s">
@@ -4745,13 +6363,13 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="9"/>
+      <c r="A148" s="10"/>
       <c r="B148" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B149" t="s">
@@ -4759,7 +6377,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="9"/>
+      <c r="A150" s="10"/>
       <c r="B150" t="s">
         <v>141</v>
       </c>
@@ -4829,7 +6447,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B159" t="s">
@@ -4837,157 +6455,157 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="10"/>
       <c r="B160" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="10"/>
       <c r="B161" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="10"/>
       <c r="B162" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="10"/>
       <c r="B163" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="10"/>
       <c r="B164" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="10"/>
       <c r="B165" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="10"/>
       <c r="B166" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="10"/>
       <c r="B167" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="10"/>
       <c r="B168" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="10"/>
       <c r="B169" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="10"/>
       <c r="B170" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="10"/>
       <c r="B171" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="10"/>
       <c r="B172" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="10"/>
       <c r="B173" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="10"/>
       <c r="B174" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="10"/>
       <c r="B175" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="10"/>
       <c r="B176" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="9"/>
+      <c r="A177" s="10"/>
       <c r="B177" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="9"/>
+      <c r="A178" s="10"/>
       <c r="B178" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="9"/>
+      <c r="A179" s="10"/>
       <c r="B179" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="9"/>
+      <c r="A180" s="10"/>
       <c r="B180" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="9"/>
+      <c r="A181" s="10"/>
       <c r="B181" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="9"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="9"/>
+      <c r="A183" s="10"/>
       <c r="B183" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="9"/>
+      <c r="A184" s="10"/>
       <c r="B184" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="9"/>
+      <c r="A185" s="10"/>
       <c r="B185" t="s">
         <v>383</v>
       </c>
@@ -5072,6 +6690,18 @@
     <sortCondition ref="A75"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="A159:A185"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="A85:A86"/>
@@ -5087,1325 +6717,7 @@
     <mergeCell ref="A106:A108"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A77:A78"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B209"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B79" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B97" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B104" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B105" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B108" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B113" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B116" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B118" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B119" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B131" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B134" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B135" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B136" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B139" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B141" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B142" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B145" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B149" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B151" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B153" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B154" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B159" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B160" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B162" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B163" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B164" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B165" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B166" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B167" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B168" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B177" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B178" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B179" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B180" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B182" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B183" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B185" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B187" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B188" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B197" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B198" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B199" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B200" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="4"/>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6416,7 +6728,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6469,40 +6781,40 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6574,39 +6886,39 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6657,7 +6969,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6684,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7798,7 +8110,7 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7994,6 +8306,9 @@
       <c r="H15" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
       <c r="C16" s="4" t="s">
@@ -8070,9 +8385,6 @@
       <c r="C19" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="E19" s="4" t="s">
         <v>272</v>
       </c>
@@ -8139,12 +8451,14 @@
         <v>236</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8">
@@ -11812,10 +12126,1316 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B209"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B140" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B142" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B159" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B165" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B178" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B180" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B185" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B197" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B198" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B200" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C89" activeCellId="6" sqref="C90 C93 C94 C98 D97 C97 C89"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11832,10 +13452,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C2" t="s">
@@ -11855,8 +13475,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>135</v>
       </c>
@@ -11865,8 +13485,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>169</v>
       </c>
@@ -11887,8 +13507,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>231</v>
       </c>
@@ -11897,15 +13517,15 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>275</v>
       </c>
@@ -11914,8 +13534,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>301</v>
       </c>
@@ -11924,8 +13544,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>313</v>
       </c>
@@ -11940,15 +13560,15 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>380</v>
       </c>
@@ -11957,7 +13577,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>391</v>
       </c>
@@ -11969,7 +13589,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -11981,8 +13601,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C14" t="s">
@@ -11990,8 +13610,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>276</v>
       </c>
@@ -12003,14 +13623,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -12021,7 +13641,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
@@ -12030,7 +13650,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -12041,7 +13661,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>390</v>
       </c>
@@ -12050,7 +13670,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -12061,8 +13681,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
@@ -12070,15 +13690,15 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>353</v>
       </c>
@@ -12106,7 +13726,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -12117,7 +13737,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="5" t="s">
         <v>390</v>
       </c>
@@ -12126,7 +13746,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -12137,8 +13757,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C30" t="s">
@@ -12149,59 +13769,59 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C38" t="s">
@@ -12212,56 +13832,56 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="5" t="s">
         <v>390</v>
       </c>
@@ -12270,7 +13890,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -12281,8 +13901,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C48" t="s">
@@ -12290,35 +13910,35 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -12329,8 +13949,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C54" t="s">
@@ -12338,22 +13958,22 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" t="s">
         <v>313</v>
       </c>
@@ -12362,21 +13982,21 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
       <c r="C58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -12387,8 +14007,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C61" t="s">
@@ -12396,8 +14016,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="4" t="s">
         <v>382</v>
       </c>
@@ -12414,7 +14034,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>233</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -12425,8 +14045,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C65" t="s">
@@ -12437,8 +14057,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -12447,7 +14067,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -12458,7 +14078,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="5" t="s">
         <v>390</v>
       </c>
@@ -12467,7 +14087,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -12478,8 +14098,8 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C70" t="s">
@@ -12487,8 +14107,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="4" t="s">
         <v>382</v>
       </c>
@@ -12505,7 +14125,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -12516,7 +14136,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="5" t="s">
         <v>390</v>
       </c>
@@ -12534,7 +14154,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -12545,8 +14165,8 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C76" t="s">
@@ -12554,28 +14174,28 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
       <c r="C78" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -12586,8 +14206,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C81" t="s">
@@ -12595,14 +14215,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
       <c r="C82" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -12613,7 +14233,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="9"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="5" t="s">
         <v>390</v>
       </c>
@@ -12631,7 +14251,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -12642,8 +14262,8 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C86" t="s">
@@ -12654,24 +14274,24 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
       <c r="C88" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C89" t="s">
@@ -12682,8 +14302,8 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
       <c r="C90" t="s">
         <v>147</v>
       </c>
@@ -12692,22 +14312,22 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
       <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
       <c r="C92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
       <c r="C93" t="s">
         <v>255</v>
       </c>
@@ -12716,29 +14336,29 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
       <c r="C95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
       <c r="C97" t="s">
         <v>351</v>
       </c>
@@ -12750,8 +14370,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="4" t="s">
         <v>382</v>
       </c>
@@ -12760,7 +14380,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="9"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="5" t="s">
         <v>390</v>
       </c>
@@ -12769,7 +14389,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -12780,7 +14400,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="9"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="5" t="s">
         <v>390</v>
       </c>
@@ -12789,7 +14409,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -12800,8 +14420,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C103" t="s">
@@ -12809,21 +14429,21 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
       <c r="C104" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
       <c r="C105" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>487</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -12834,7 +14454,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="9"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="5" t="s">
         <v>390</v>
       </c>
@@ -12854,10 +14474,10 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C109" t="s">
@@ -12880,8 +14500,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
       <c r="C110" t="s">
         <v>135</v>
       </c>
@@ -12896,8 +14516,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -12921,8 +14541,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -12937,8 +14557,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
       <c r="C113" t="s">
         <v>254</v>
       </c>
@@ -12947,8 +14567,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
       <c r="C114" t="s">
         <v>275</v>
       </c>
@@ -12960,8 +14580,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
       <c r="C115" t="s">
         <v>301</v>
       </c>
@@ -12973,8 +14593,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
       <c r="C116" t="s">
         <v>313</v>
       </c>
@@ -12983,8 +14603,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
       <c r="C117" t="s">
         <v>351</v>
       </c>
@@ -12993,8 +14613,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
       <c r="C118" t="s">
         <v>380</v>
       </c>
@@ -13006,8 +14626,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C119" t="s">
@@ -13015,29 +14635,29 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
       <c r="C120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
       <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
       <c r="C122" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
       <c r="C123" t="s">
         <v>255</v>
       </c>
@@ -13046,15 +14666,15 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
       <c r="C124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
       <c r="C125" t="s">
         <v>302</v>
       </c>
@@ -13063,15 +14683,15 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
       <c r="C126" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
       <c r="C127" t="s">
         <v>353</v>
       </c>
@@ -13080,8 +14700,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
@@ -13101,7 +14721,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>349</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -13112,7 +14732,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="9"/>
+      <c r="A131" s="10"/>
       <c r="B131" s="5" t="s">
         <v>390</v>
       </c>
@@ -13121,7 +14741,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -13132,8 +14752,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9" t="s">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C133" t="s">
@@ -13141,8 +14761,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
       <c r="C134" t="s">
         <v>232</v>
       </c>
@@ -13151,8 +14771,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
       <c r="C135" t="s">
         <v>319</v>
       </c>
@@ -13161,7 +14781,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -13172,7 +14792,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="9"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="5" t="s">
         <v>390</v>
       </c>
@@ -13193,7 +14813,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="10" t="s">
         <v>263</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -13204,7 +14824,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="9"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="5" t="s">
         <v>390</v>
       </c>
@@ -13213,7 +14833,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>265</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -13224,7 +14844,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="9"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="5" t="s">
         <v>390</v>
       </c>
@@ -13233,7 +14853,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -13244,7 +14864,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="9"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="5" t="s">
         <v>390</v>
       </c>
@@ -13253,7 +14873,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>260</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -13264,8 +14884,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C145" t="s">
@@ -13276,14 +14896,14 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
       <c r="C146" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -13294,7 +14914,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="9"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="5" t="s">
         <v>390</v>
       </c>
@@ -13306,10 +14926,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C149" t="s">
@@ -13317,22 +14937,22 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
       <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
       <c r="C151" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C152" t="s">
@@ -13346,21 +14966,21 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
       <c r="C153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>261</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -13371,7 +14991,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="9"/>
+      <c r="A156" s="10"/>
       <c r="B156" s="5" t="s">
         <v>390</v>
       </c>
@@ -13391,7 +15011,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -13402,7 +15022,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="9"/>
+      <c r="A159" s="10"/>
       <c r="B159" s="5" t="s">
         <v>390</v>
       </c>
@@ -13411,7 +15031,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -13422,8 +15042,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C161" t="s">
@@ -13446,8 +15066,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
       <c r="C162" t="s">
         <v>319</v>
       </c>
@@ -13456,7 +15076,7 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -13467,7 +15087,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="9"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="5" t="s">
         <v>390</v>
       </c>
@@ -13476,7 +15096,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -13487,8 +15107,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C166" t="s">
@@ -13496,8 +15116,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
       <c r="C167" t="s">
         <v>232</v>
       </c>
@@ -13506,8 +15126,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
       <c r="C168" t="s">
         <v>351</v>
       </c>
@@ -13524,7 +15144,7 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>350</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -13535,7 +15155,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="9"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="5" t="s">
         <v>390</v>
       </c>
@@ -13544,7 +15164,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -13555,8 +15175,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C173" t="s">
@@ -13564,8 +15184,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
       <c r="C174" s="4" t="s">
         <v>352</v>
       </c>
@@ -13577,8 +15197,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
       <c r="C175" t="s">
         <v>380</v>
       </c>
@@ -13595,7 +15215,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -13606,7 +15226,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="9"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="5" t="s">
         <v>390</v>
       </c>
@@ -13615,7 +15235,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="10" t="s">
         <v>273</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -13626,8 +15246,8 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -13635,21 +15255,21 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
       <c r="C181" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
       <c r="C182" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -13660,8 +15280,8 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9" t="s">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C184" t="s">
@@ -13678,21 +15298,21 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
       <c r="C185" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
       <c r="C186" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -13703,7 +15323,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="9"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="5" t="s">
         <v>390</v>
       </c>
@@ -13712,7 +15332,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -13723,7 +15343,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="9"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
@@ -13735,7 +15355,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -13746,8 +15366,8 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9" t="s">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -13755,8 +15375,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
       <c r="C193" s="4" t="s">
         <v>277</v>
       </c>
@@ -13776,10 +15396,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C195" t="s">
@@ -13790,31 +15410,31 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
       <c r="C196" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
       <c r="C197" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
       <c r="C198" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C199" t="s">
@@ -13828,8 +15448,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
       <c r="C200" t="s">
         <v>141</v>
       </c>
@@ -13844,8 +15464,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
       <c r="C201" t="s">
         <v>171</v>
       </c>
@@ -13863,8 +15483,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
       <c r="C202" t="s">
         <v>232</v>
       </c>
@@ -13876,8 +15496,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
       <c r="C203" t="s">
         <v>254</v>
       </c>
@@ -13889,15 +15509,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
       <c r="C204" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
       <c r="C205" t="s">
         <v>301</v>
       </c>
@@ -13909,8 +15529,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
       <c r="C206" t="s">
         <v>320</v>
       </c>
@@ -13925,8 +15545,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
       <c r="C207" t="s">
         <v>351</v>
       </c>
@@ -13935,8 +15555,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
       <c r="C208" t="s">
         <v>381</v>
       </c>
@@ -13948,7 +15568,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -13959,7 +15579,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="9"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="5" t="s">
         <v>390</v>
       </c>
@@ -13968,7 +15588,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -13979,7 +15599,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="9"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="5" t="s">
         <v>390</v>
       </c>
@@ -13988,7 +15608,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -13999,8 +15619,8 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9" t="s">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C214" t="s">
@@ -14008,8 +15628,8 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
       <c r="C215" t="s">
         <v>135</v>
       </c>
@@ -14021,29 +15641,29 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
       <c r="C216" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
       <c r="C217" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
       <c r="C218" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
       <c r="C219" t="s">
         <v>380</v>
       </c>
@@ -14060,10 +15680,10 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C221" t="s">
@@ -14071,15 +15691,15 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
       <c r="C222" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9" t="s">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C223" t="s">
@@ -14096,22 +15716,22 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
       <c r="C224" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
       <c r="C225" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
       <c r="C226" t="s">
         <v>231</v>
       </c>
@@ -14120,8 +15740,8 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
       <c r="C227" t="s">
         <v>254</v>
       </c>
@@ -14130,15 +15750,15 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
       <c r="C228" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
       <c r="C229" t="s">
         <v>301</v>
       </c>
@@ -14147,15 +15767,15 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
       <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
       <c r="C231" t="s">
         <v>351</v>
       </c>
@@ -14170,8 +15790,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
       <c r="C232" t="s">
         <v>381</v>
       </c>
@@ -14180,10 +15800,10 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C233" t="s">
@@ -14197,15 +15817,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
       <c r="C234" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
       <c r="C235" t="s">
         <v>174</v>
       </c>
@@ -14214,29 +15834,29 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
       <c r="C236" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
       <c r="C237" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
       <c r="C238" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
       <c r="C239" t="s">
         <v>276</v>
       </c>
@@ -14245,15 +15865,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
       <c r="C240" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
       <c r="C241" t="s">
         <v>322</v>
       </c>
@@ -14262,8 +15882,8 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
       <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
@@ -14272,8 +15892,8 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
       <c r="C243" s="4" t="s">
         <v>382</v>
       </c>
@@ -14282,7 +15902,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -14293,8 +15913,8 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9" t="s">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C245" t="s">
@@ -14302,8 +15922,8 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
       <c r="C246" t="s">
         <v>171</v>
       </c>
@@ -14312,7 +15932,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -14323,7 +15943,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="9"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="5" t="s">
         <v>390</v>
       </c>
@@ -14332,7 +15952,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -14343,7 +15963,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="9"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="5" t="s">
         <v>390</v>
       </c>
@@ -14352,7 +15972,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="10" t="s">
         <v>183</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -14363,8 +15983,8 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="9"/>
-      <c r="B252" s="9" t="s">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C252" t="s">
@@ -14378,8 +15998,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
       <c r="C253" t="s">
         <v>232</v>
       </c>
@@ -14388,15 +16008,15 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
       <c r="C254" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
       <c r="C255" t="s">
         <v>320</v>
       </c>
@@ -14411,14 +16031,14 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
       <c r="C256" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="10" t="s">
         <v>314</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -14429,7 +16049,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="9"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="5" t="s">
         <v>390</v>
       </c>
@@ -14450,7 +16070,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -14461,7 +16081,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="9"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="5" t="s">
         <v>390</v>
       </c>
@@ -14470,7 +16090,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="10" t="s">
         <v>394</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -14481,7 +16101,7 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="9"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="5" t="s">
         <v>390</v>
       </c>
@@ -14490,7 +16110,7 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -14501,7 +16121,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="9"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="5" t="s">
         <v>390</v>
       </c>
@@ -14526,38 +16146,54 @@
     <sortCondition descending="1" ref="B2:B265"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="A147:A148"/>
     <mergeCell ref="B252:B256"/>
     <mergeCell ref="A251:A256"/>
     <mergeCell ref="A257:A258"/>
@@ -14574,61 +16210,45 @@
     <mergeCell ref="A209:A210"/>
     <mergeCell ref="A211:A212"/>
     <mergeCell ref="B214:B219"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A160:A162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C33"/>
   <sheetViews>
@@ -14807,7 +16427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F22"/>
   <sheetViews>
@@ -14955,7 +16575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
@@ -15065,12 +16685,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G238"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16787,1622 +18407,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D239"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:D93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B81" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B90" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" t="s">
-        <v>426</v>
-      </c>
-      <c r="C91" t="s">
-        <v>418</v>
-      </c>
-      <c r="D91" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" t="s">
-        <v>426</v>
-      </c>
-      <c r="C93" t="s">
-        <v>414</v>
-      </c>
-      <c r="D93" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B115" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B126" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B130" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B132" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B134" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B163" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B166" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B167" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B170" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B171" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B172" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B173" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B175" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B177" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B178" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B179" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B181" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B184" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B185" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B190" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B196" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B197" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B198" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B201" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B202" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B203" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B213" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B214" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B216" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B217" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B218" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B219" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B221" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B222" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B223" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B225" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B226" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B227" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B230" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B231" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B237" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B238" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B239" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>